--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2180 +418,2428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.394096300409953</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10.76755935471046</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01376964261582204</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.01471501224284997</v>
+      </c>
+      <c r="E2">
         <v>1.399659757831053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4.394301739706118</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5.07702115419408</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1543637139358818</v>
+      </c>
+      <c r="I2">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="J2">
         <v>3.490940525350247</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>4.62350852179618</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>7.243486345733196</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>4.557983270346906</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N2" t="n">
-        <v>44.34384823987091</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>45.64324179506414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.489375096735963</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11.19608016839286</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01207491737079779</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01290393381296075</v>
+      </c>
+      <c r="E3">
         <v>1.227393941482616</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>4.028109928063941</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4.653936058011237</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1543637139358818</v>
+      </c>
+      <c r="I3">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="J3">
         <v>2.736542360973711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>3.624360493780904</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>6.24438478080448</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>3.929295922712849</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.1017428700181487</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.4228493673500776</v>
       </c>
-      <c r="N3" t="n">
-        <v>40.66614590569759</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>41.96542310770596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.624497753343761</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>11.80380059506972</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01292227999330992</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01380947302790536</v>
+      </c>
+      <c r="E4">
         <v>1.313526849656835</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3.967077959456912</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4.583421875314098</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1447159818148892</v>
+      </c>
+      <c r="I4">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="J4">
         <v>3.091553261856787</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>4.09454780108221</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>5.619946302724028</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>3.536366330441566</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N4" t="n">
-        <v>41.12456304291034</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>42.34274540991326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.610639019332706</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>11.74147029489774</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.009532829503261415</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01018731616812691</v>
+      </c>
+      <c r="E5">
         <v>0.9689952169599602</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.661918116421766</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4.230850961828398</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1447159818148892</v>
+      </c>
+      <c r="I5">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="J5">
         <v>3.121137503597044</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>4.133730076690651</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>4.246181650947046</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>2.671921227444738</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N5" t="n">
-        <v>37.7778985248002</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>38.99584818543339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.69898844865319</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12.13882595849414</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0114393954039137</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.01222477940175228</v>
+      </c>
+      <c r="E6">
         <v>1.162794260351952</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4.33326977109909</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>5.006506971496937</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1833069102988596</v>
+      </c>
+      <c r="I6">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="J6">
         <v>2.677373877493198</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>3.545995942564019</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>4.495957042179222</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>2.829093064353252</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.05549611091899024</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.2306451094636787</v>
       </c>
-      <c r="N6" t="n">
-        <v>39.18638595247159</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>40.7290785568293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.754423384697414</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>12.38814715918208</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.00995651081451748</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.01064008577559921</v>
+      </c>
+      <c r="E7">
         <v>1.012061671047069</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>4.516365676920181</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5.218049519588357</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I7">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J7">
         <v>2.351947218350379</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>3.114990910871155</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>3.621743172866598</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>2.278991635173453</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N7" t="n">
-        <v>37.88664950367365</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>39.34808728739672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.017739330907479</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>13.5724228624498</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.01101571409265763</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.01177200979427998</v>
+      </c>
+      <c r="E8">
         <v>1.119727806264843</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>4.27223780249206</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>4.935992788799798</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.3280228921137489</v>
+      </c>
+      <c r="I8">
+        <v>2.43117950221445</v>
+      </c>
+      <c r="J8">
         <v>2.559036910532172</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>3.38926684013025</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>2.372866216705702</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>1.493132450630883</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1017428700181487</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.4228493673500776</v>
       </c>
-      <c r="N8" t="n">
-        <v>37.26803096037387</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>40.02798965040369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.329560846156243</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>14.97485461631947</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.009320988847633384</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.009960931364390753</v>
+      </c>
+      <c r="E9">
         <v>0.9474619899164056</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.089141896670972</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>4.724450240708378</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.5981593915015421</v>
+      </c>
+      <c r="I9">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="J9">
         <v>2.396323580960763</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>3.173764324283818</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>2.372866216705702</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>1.493132450630883</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N9" t="n">
-        <v>37.84470857498005</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>42.87683523656587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3.19963521480259</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14.39050805220711</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.01059203278140157</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.01131924018680767</v>
+      </c>
+      <c r="E10">
         <v>1.076661352177733</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5.065653394383442</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5.852677163862617</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.723579909074446</v>
+      </c>
+      <c r="I10">
+        <v>5.362895960767168</v>
+      </c>
+      <c r="J10">
         <v>1.286914515701151</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>1.704428988967235</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>1.748427738625254</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>1.100202858359598</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N10" t="n">
-        <v>35.57877192205947</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>41.66597499930649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.314408579846379</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>10.40916012872154</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.008685466880749289</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.00928177695318229</v>
+      </c>
+      <c r="E11">
         <v>0.8828623087857418</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3.600886147814736</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4.160336779131258</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.5788639272595568</v>
+      </c>
+      <c r="I11">
+        <v>4.290316768613736</v>
+      </c>
+      <c r="J11">
         <v>0.6656454391557676</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.8816012011899493</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>1.498652347393075</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.9430310214510838</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N11" t="n">
-        <v>25.50834003056162</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>30.37811703650734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.935025736293716</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>8.702868161513454</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.009532829503261415</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.01018731616812691</v>
+      </c>
+      <c r="E12">
         <v>0.9689952169599602</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3.173662367565531</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3.666737500251279</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.453443409686653</v>
+      </c>
+      <c r="I12">
+        <v>3.360748135414092</v>
+      </c>
+      <c r="J12">
         <v>0.5916848348051266</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.7836455121688439</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.873315434241343</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>1.178788776813855</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N12" t="n">
-        <v>23.07501718370482</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>26.88986321547043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.597219094774223</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.183567094821308</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.006355219668840942</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.006791544112084601</v>
+      </c>
+      <c r="E13">
         <v>0.6459968113066401</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>2.563342681495235</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>2.961595673279878</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.3376706242347414</v>
+      </c>
+      <c r="I13">
+        <v>2.502684781691345</v>
+      </c>
+      <c r="J13">
         <v>0.2958424174025633</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.391822756084422</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.8742138693126269</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.5501014291797992</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N13" t="n">
-        <v>17.16543745411976</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>20.00622918448909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.223033276475707</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5.500648990177704</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.00571969770195685</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.006112389700876142</v>
+      </c>
+      <c r="E14">
         <v>0.5813971301759761</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1.342703309354647</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.55131201933708</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.1543637139358818</v>
+      </c>
+      <c r="I14">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="J14">
         <v>0.3698030217532042</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.4897784451055275</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.6244384780804476</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.3929295922712851</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N14" t="n">
-        <v>12.22483457062487</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>13.52367544819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.7189218268235389</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.233384321421738</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.002542087867536378</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.002716617644833841</v>
+      </c>
+      <c r="E15">
         <v>0.258398724522656</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.7323836232843531</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.8461701923656797</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.09647732120992612</v>
+      </c>
+      <c r="I15">
+        <v>0.7150527947689559</v>
+      </c>
+      <c r="J15">
         <v>0.2958424174025633</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.391822756084422</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.8742138693126269</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.5501014291797992</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N15" t="n">
-        <v>7.951471451662025</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>8.763176097418203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.5786021449615947</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.602290032180386</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.004872335079444723</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.005206850485931529</v>
+      </c>
+      <c r="E16">
         <v>0.4952642220017574</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.8544475604984122</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.9871985577599595</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I16">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J16">
         <v>0.1627133295714098</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.2155025158464321</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.9991015649287165</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.6286873476340559</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N16" t="n">
-        <v>7.57636981385928</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>7.820163364059431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3672564512929885</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.651752954557612</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.006567060324468975</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.007017928915820759</v>
+      </c>
+      <c r="E17">
         <v>0.6675300383501948</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.4272237802492061</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.4935992788799797</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.009647732120992613</v>
+      </c>
+      <c r="I17">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="J17">
         <v>0.3402187800129478</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.4505961694970853</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.9991015649287165</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.6286873476340559</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>6.032533425727255</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>6.114137305916495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.2511895539503929</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.129736690617234</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.00571969770195685</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.006112389700876142</v>
+      </c>
+      <c r="E18">
         <v>0.5813971301759761</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.4272237802492061</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.4935992788799797</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.009647732120992613</v>
+      </c>
+      <c r="I18">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="J18">
         <v>0.177505450441538</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.2350936536506532</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>1.373764651776985</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>5.53967499044075</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>5.621220694037557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.2598512627073032</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.168693128224724</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.004872335079444723</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.005206850485931529</v>
+      </c>
+      <c r="E19">
         <v>0.4952642220017574</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.6103196860702942</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.7051418269713997</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.04823866060496306</v>
+      </c>
+      <c r="I19">
+        <v>0.3575263973844779</v>
+      </c>
+      <c r="J19">
         <v>0.3106345382726915</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.4114138938886431</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>1.123989260544805</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.7072732660883131</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>5.797453419849377</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>6.203552993245304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.4452118301051793</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.002360893025028</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.002965769178792441</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.003169387252306149</v>
+      </c>
+      <c r="E20">
         <v>0.3014651786097653</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.9154795291054416</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.057712740457099</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I20">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J20">
         <v>0.621269076545383</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.8228277877772862</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>1.373764651776985</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>8.407502559577788</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>8.651165212444967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.032475683823684</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.643607362812907</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.002542087867536378</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.002716617644833841</v>
+      </c>
+      <c r="E21">
         <v>0.258398724522656</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>2.13611890124603</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>2.467996394399899</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.3666138205977193</v>
+      </c>
+      <c r="I21">
+        <v>2.717200620122032</v>
+      </c>
+      <c r="J21">
         <v>1.065032702649228</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>1.410561921903919</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>3.621743172866598</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>2.278991635173453</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N21" t="n">
-        <v>18.96515879066302</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>22.04914776116008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.838014598216324</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>8.266556060309552</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.008473626225121258</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.00905539214944614</v>
+      </c>
+      <c r="E22">
         <v>0.8613290817421868</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3.845014022242855</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4.442393509919818</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.9454777478572761</v>
+      </c>
+      <c r="I22">
+        <v>7.007517388735765</v>
+      </c>
+      <c r="J22">
         <v>1.77505450441538</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>2.350936536506532</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>5.619946302724028</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>3.536366330441566</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N22" t="n">
-        <v>32.78253558972892</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>40.73611249224629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2.544810032780188</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>11.4454013690808</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.004236813112560629</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.00452769607472307</v>
+      </c>
+      <c r="E23">
         <v>0.4306645408710934</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2.563342681495235</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>2.961595673279878</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.7911140339213945</v>
+      </c>
+      <c r="I23">
+        <v>5.863432917105436</v>
+      </c>
+      <c r="J23">
         <v>2.1004811635582</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>2.781941568199396</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>5.120395520259671</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>3.222022656624538</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N23" t="n">
-        <v>33.65179405323268</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>40.30663188722167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.977895470625695</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>13.39322324945534</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.005084175735072755</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.005433235289667683</v>
+      </c>
+      <c r="E24">
         <v>0.516797449045312</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3.173662367565531</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3.666737500251279</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.3473183563557341</v>
+      </c>
+      <c r="I24">
+        <v>2.574190061168242</v>
+      </c>
+      <c r="J24">
         <v>2.233610251389353</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>2.958261808437386</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>7.118598650117106</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>4.479397351892651</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N24" t="n">
-        <v>40.90478990169161</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>43.82664737877018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.404490350918245</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10.81430707983944</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.01038019212577354</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.01109285538307152</v>
+      </c>
+      <c r="E25">
         <v>1.055128125134179</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4.150173865278004</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>4.794964423405517</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2604887672668005</v>
+      </c>
+      <c r="I25">
+        <v>1.930642545876181</v>
+      </c>
+      <c r="J25">
         <v>2.854879327934737</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>3.781089596214672</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>8.367475606277996</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>5.26525653643522</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N25" t="n">
-        <v>43.68890591715222</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>45.8807498935525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.461657628713851</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>11.07141956804888</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.0114393954039137</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.01222477940175228</v>
+      </c>
+      <c r="E26">
         <v>1.162794260351952</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.967077959456912</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>4.583421875314098</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1543637139358818</v>
+      </c>
+      <c r="I26">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="J26">
         <v>3.727614459272297</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>4.936966726663718</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>8.617250997510176</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>5.422428373343735</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N26" t="n">
-        <v>46.43897327805065</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>47.7382068476147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2.418349084929301</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>10.87663738001143</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01376964261582204</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.01471501224284997</v>
+      </c>
+      <c r="E27">
         <v>1.399659757831053</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.539854179207707</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>4.089822596434118</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.125420517572904</v>
+      </c>
+      <c r="I27">
+        <v>0.9295686331996423</v>
+      </c>
+      <c r="J27">
         <v>3.091553261856787</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>4.09454780108221</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>7.992812519429732</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>5.029498781072447</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.345967664195518</v>
       </c>
-      <c r="N27" t="n">
-        <v>42.97571683504461</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>44.03165135544419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2.46858699571938</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>11.10258471813488</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01059203278140157</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01131924018680767</v>
+      </c>
+      <c r="E28">
         <v>1.076661352177733</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>3.112630398958501</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3.596223317554138</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1833069102988596</v>
+      </c>
+      <c r="I28">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="J28">
         <v>2.618205394012687</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>3.467631391347135</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>5.869721693956208</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>3.693538167350079</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N28" t="n">
-        <v>37.63634810615459</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>39.17898253391987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2.612371361084087</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>11.74926158241924</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.009532829503261415</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.01018731616812691</v>
+      </c>
+      <c r="E29">
         <v>0.9689952169599602</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>4.516365676920181</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>5.218049519588357</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.2411933030248154</v>
+      </c>
+      <c r="I29">
+        <v>1.787631986922389</v>
+      </c>
+      <c r="J29">
         <v>2.98800841576589</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>3.957409836452662</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>5.74483399834012</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>3.614952248895823</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N29" t="n">
-        <v>41.99975333009203</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>44.0292331067041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.293620478829795</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>10.31566467846357</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.009109148192005355</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.009734546560654599</v>
+      </c>
+      <c r="E30">
         <v>0.9259287628728509</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>4.577397645527209</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>5.288563702285499</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1543637139358818</v>
+      </c>
+      <c r="I30">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="J30">
         <v>2.721750240103582</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>3.604769355976682</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>3.371967781634417</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>2.121819798264938</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N30" t="n">
-        <v>35.61211321932744</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>36.9111868032623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2.697256106901806</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>12.13103467097264</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.006990741635725039</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.007470698523293064</v>
+      </c>
+      <c r="E31">
         <v>0.7105964924373042</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>3.295726304779589</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3.807765865645559</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1447159818148892</v>
+      </c>
+      <c r="I31">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="J31">
         <v>2.66258175662307</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>3.526404804759797</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>5.245283215875761</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>3.300608575078795</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.1387402772974756</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.5766127736591966</v>
       </c>
-      <c r="N31" t="n">
-        <v>38.09960158566673</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>39.31737671652262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3.081835975708615</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>13.86070050074524</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.009320988847633384</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.009960931364390753</v>
+      </c>
+      <c r="E32">
         <v>0.9474619899164056</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.967077959456912</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>4.583421875314098</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.3183751599927564</v>
+      </c>
+      <c r="I32">
+        <v>2.359674222737553</v>
+      </c>
+      <c r="J32">
         <v>2.573829031402302</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>3.408857977934471</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>4.246181650947046</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>2.671921227444738</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.345967664195518</v>
       </c>
-      <c r="N32" t="n">
-        <v>39.77982100829147</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>42.45851033353853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>3.379798756946322</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>15.20080195444291</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.006990741635725039</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.007470698523293064</v>
+      </c>
+      <c r="E33">
         <v>0.7105964924373042</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.990566461744442</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3.45519495215986</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.5402729987755864</v>
+      </c>
+      <c r="I33">
+        <v>4.004295650706152</v>
+      </c>
+      <c r="J33">
         <v>2.1004811635582</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>2.781941568199396</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>2.123090825473523</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>1.335960613722369</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N33" t="n">
-        <v>34.41925495409983</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>38.96430356046914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>3.527047805813793</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>15.86306139377026</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.004872335079444723</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.005206850485931529</v>
+      </c>
+      <c r="E34">
         <v>0.4952642220017574</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>3.417790241993649</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3.948794231039838</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.6946367127114682</v>
+      </c>
+      <c r="I34">
+        <v>5.148380122336484</v>
+      </c>
+      <c r="J34">
         <v>1.420043603532304</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>1.880749229205225</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>1.123989260544805</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>0.7072732660883131</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N34" t="n">
-        <v>32.62733660605495</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>38.47068795650939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.473784020973526</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>11.12595858069937</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004448653768188661</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.004754080878459224</v>
+      </c>
+      <c r="E35">
         <v>0.452197767914648</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>2.807470555923354</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>3.243652404068439</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.5209775345336011</v>
+      </c>
+      <c r="I35">
+        <v>3.861285091752363</v>
+      </c>
+      <c r="J35">
         <v>0.8283587687271775</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.097103717036382</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>1.873315434241343</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>1.178788776813855</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N35" t="n">
-        <v>25.32352969715184</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>29.70609775054807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2.189679973746873</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>9.848187427173677</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.002965769178792441</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.003169387252306149</v>
+      </c>
+      <c r="E36">
         <v>0.3014651786097653</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.891991026817913</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.18593966361134</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.5595684630175716</v>
+      </c>
+      <c r="I36">
+        <v>4.147306209659945</v>
+      </c>
+      <c r="J36">
         <v>0.6508533182856393</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.8620100633857283</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>1.748427738625254</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>1.100202858359598</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N36" t="n">
-        <v>21.11555444157436</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>25.82263273232539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.751397510647223</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>7.876991684234643</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.002965769178792441</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.003169387252306149</v>
+      </c>
+      <c r="E37">
         <v>0.3014651786097653</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>2.075086932639002</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2.397482211702759</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.3087274278717636</v>
+      </c>
+      <c r="I37">
+        <v>2.288168943260659</v>
+      </c>
+      <c r="J37">
         <v>0.5768927139349985</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.7640543743646229</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>1.123989260544805</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.7072732660883131</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N37" t="n">
-        <v>17.76835971553337</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>20.3654597047393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.347761882575212</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.061621691725571</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.005084175735072755</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.005433235289667683</v>
+      </c>
+      <c r="E38">
         <v>0.516797449045312</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1.220639372140588</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1.410283653942799</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.1543637139358818</v>
+      </c>
+      <c r="I38">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="J38">
         <v>0.428971505233717</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.5681429963224118</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>1.123989260544805</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.7072732660883131</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N38" t="n">
-        <v>13.48594566014803</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>14.78474290526883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.8419180911716623</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.786565735448108</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004024972456932598</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.004301311270986916</v>
+      </c>
+      <c r="E39">
         <v>0.4091313138275387</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.8544475604984122</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.9871985577599595</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.0675341248469483</v>
+      </c>
+      <c r="I39">
+        <v>0.500536956338269</v>
+      </c>
+      <c r="J39">
         <v>0.2218818130519225</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.2938670670633165</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.7493261736965373</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.4715155107255419</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N39" t="n">
-        <v>8.667566999097042</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>9.235914419096314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.6392341062599661</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.874985095432821</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.008685466880749289</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.00928177695318229</v>
+      </c>
+      <c r="E40">
         <v>0.8828623087857418</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.6713516546773237</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.7756560096685398</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.03859092848397045</v>
+      </c>
+      <c r="I40">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="J40">
         <v>0.2070896921817944</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.2742759292590954</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>1.373764651776985</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N40" t="n">
-        <v>8.667730424714065</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>8.992938781178053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.4573382223648536</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.056899905675516</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.006567060324468975</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.007017928915820759</v>
+      </c>
+      <c r="E41">
         <v>0.6675300383501948</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.4272237802492061</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.4935992788799797</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.009647732120992613</v>
+      </c>
+      <c r="I41">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="J41">
         <v>0.3698030217532042</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.4897784451055275</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>1.373764651776985</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N41" t="n">
-        <v>7.254639710873874</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>7.336243591063115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.337806641519494</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.519301066692141</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.003813131801304566</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.004074926467250763</v>
+      </c>
+      <c r="E42">
         <v>0.3875980867839841</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.6713516546773237</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.7756560096685398</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.01929546424198523</v>
+      </c>
+      <c r="I42">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="J42">
         <v>0.1922975713116662</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.2546847914548743</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>1.248876956160895</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.7858591845425702</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>6.177245094612793</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>6.339812912474515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.2650482879614492</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.192066990789219</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.003389450490048503</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.003622156859778456</v>
+      </c>
+      <c r="E43">
         <v>0.3445316326968748</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.6713516546773237</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.7756560096685398</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.01929546424198523</v>
+      </c>
+      <c r="I43">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="J43">
         <v>0.2366739339220507</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.3134582048675376</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>1.748427738625254</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>1.100202858359598</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N43" t="n">
-        <v>6.698496965455007</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>6.861035695020512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.4365501213482694</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.963404455417537</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.002753928523164409</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.002943002448569995</v>
+      </c>
+      <c r="E44">
         <v>0.2799319515662109</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.7323836232843531</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.8461701923656797</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I44">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J44">
         <v>0.6508533182856393</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.8620100633857283</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>1.748427738625254</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>1.100202858359598</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>8.622688251161435</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>8.866336359880506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.037672709077831</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.666981225377401</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.002330247211908346</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.002490232841097688</v>
+      </c>
+      <c r="E45">
         <v>0.2368654974791014</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.159607403533559</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1.339769471245659</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.3087274278717636</v>
+      </c>
+      <c r="I45">
+        <v>2.288168943260659</v>
+      </c>
+      <c r="J45">
         <v>1.420043603532304</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>1.880749229205225</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>3.746630868482686</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>2.35757755362771</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N45" t="n">
-        <v>17.94360821556761</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>20.54066457232922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.896914217763313</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>8.531459836040488</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.002330247211908346</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.002490232841097688</v>
+      </c>
+      <c r="E46">
         <v>0.2368654974791014</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.502310712888206</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>2.891081490582738</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.9454777478572761</v>
+      </c>
+      <c r="I46">
+        <v>7.007517388735765</v>
+      </c>
+      <c r="J46">
         <v>1.804638746155637</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>2.390118812114974</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>7.368374041349286</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>4.636569188801166</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N46" t="n">
-        <v>32.45142360397526</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>40.4045787261975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2.589850918316121</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>11.64797484463975</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.003601291145676535</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.003848541663514609</v>
+      </c>
+      <c r="E47">
         <v>0.3660648597404293</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>3.173662367565531</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>3.666737500251279</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.752523105437424</v>
+      </c>
+      <c r="I47">
+        <v>5.577411799197856</v>
+      </c>
+      <c r="J47">
         <v>1.878599350506277</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>2.488074501136079</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>5.994609389572298</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>3.772124085804335</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N47" t="n">
-        <v>35.91513053245756</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>42.24531268761068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2.858363889780334</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>12.85562441047196</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.005296016390700787</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E48">
         <v>0.5383306760888666</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>3.661918116421766</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>4.230850961828398</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.3859092848397045</v>
+      </c>
+      <c r="I48">
+        <v>2.860211179075824</v>
+      </c>
+      <c r="J48">
         <v>2.322362976610122</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>3.075808635262713</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>6.24438478080448</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>3.929295922712849</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.345967664195518</v>
       </c>
-      <c r="N48" t="n">
-        <v>40.15144821694619</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>43.39793228456443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2.404490350918245</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>10.81430707983944</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.01038019212577354</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.01109285538307152</v>
+      </c>
+      <c r="E49">
         <v>1.055128125134179</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>4.150173865278004</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>4.794964423405517</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.2604887672668005</v>
+      </c>
+      <c r="I49">
+        <v>1.930642545876181</v>
+      </c>
+      <c r="J49">
         <v>2.854879327934737</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>3.781089596214672</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>8.367475606277996</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>5.26525653643522</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N49" t="n">
-        <v>43.68890591715222</v>
+      <c r="P49">
+        <v>45.8807498935525</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.394096300409953</v>
+        <v>3.47039872415947</v>
       </c>
       <c r="C2">
-        <v>10.76755935471046</v>
+        <v>15.60827951678464</v>
       </c>
       <c r="D2">
-        <v>0.01471501224284997</v>
+        <v>0.02133036992072253</v>
       </c>
       <c r="E2">
-        <v>1.399659757831053</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="F2">
-        <v>4.394301739706118</v>
+        <v>6.36982695660009</v>
       </c>
       <c r="G2">
-        <v>5.07702115419408</v>
+        <v>7.35947327307959</v>
       </c>
       <c r="H2">
-        <v>0.1543637139358818</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I2">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J2">
-        <v>3.490940525350247</v>
+        <v>5.060345961529447</v>
       </c>
       <c r="K2">
-        <v>4.62350852179618</v>
+        <v>6.702077135508029</v>
       </c>
       <c r="L2">
-        <v>7.243486345733196</v>
+        <v>10.49990585942368</v>
       </c>
       <c r="M2">
-        <v>4.557983270346906</v>
+        <v>6.607094010146345</v>
       </c>
       <c r="N2">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O2">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P2">
-        <v>45.64324179506414</v>
+        <v>66.16285571510603</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.489375096735963</v>
+        <v>3.608511553268567</v>
       </c>
       <c r="C3">
-        <v>11.19608016839286</v>
+        <v>16.22944838322687</v>
       </c>
       <c r="D3">
-        <v>0.01290393381296075</v>
+        <v>0.01870509362278745</v>
       </c>
       <c r="E3">
-        <v>1.227393941482616</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="F3">
-        <v>4.028109928063941</v>
+        <v>5.839008043550085</v>
       </c>
       <c r="G3">
-        <v>4.653936058011237</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="H3">
-        <v>0.1543637139358818</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I3">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J3">
-        <v>2.736542360973711</v>
+        <v>3.966796622385372</v>
       </c>
       <c r="K3">
-        <v>3.624360493780904</v>
+        <v>5.253746907071971</v>
       </c>
       <c r="L3">
-        <v>6.24438478080448</v>
+        <v>9.051642982261798</v>
       </c>
       <c r="M3">
-        <v>3.929295922712849</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="N3">
-        <v>0.1017428700181487</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O3">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P3">
-        <v>41.96542310770596</v>
+        <v>60.83161767003987</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.624497753343761</v>
+        <v>3.80438065636874</v>
       </c>
       <c r="C4">
-        <v>11.80380059506972</v>
+        <v>17.11037877563584</v>
       </c>
       <c r="D4">
-        <v>0.01380947302790536</v>
+        <v>0.02001773177175499</v>
       </c>
       <c r="E4">
-        <v>1.313526849656835</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="F4">
-        <v>3.967077959456912</v>
+        <v>5.750538224708415</v>
       </c>
       <c r="G4">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H4">
-        <v>0.1447159818148892</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I4">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J4">
-        <v>3.091553261856787</v>
+        <v>4.48140807610023</v>
       </c>
       <c r="K4">
-        <v>4.09454780108221</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="L4">
-        <v>5.619946302724028</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M4">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N4">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O4">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P4">
-        <v>42.34274540991326</v>
+        <v>61.37857095506558</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.610639019332706</v>
+        <v>3.784291517589236</v>
       </c>
       <c r="C5">
-        <v>11.74147029489774</v>
+        <v>17.02002694051697</v>
       </c>
       <c r="D5">
-        <v>0.01018731616812691</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E5">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F5">
-        <v>3.661918116421766</v>
+        <v>5.308189130500073</v>
       </c>
       <c r="G5">
-        <v>4.230850961828398</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="H5">
-        <v>0.1447159818148892</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I5">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J5">
-        <v>3.121137503597044</v>
+        <v>4.524292363909802</v>
       </c>
       <c r="K5">
-        <v>4.133730076690651</v>
+        <v>5.99211133725506</v>
       </c>
       <c r="L5">
-        <v>4.246181650947046</v>
+        <v>6.15511722793802</v>
       </c>
       <c r="M5">
-        <v>2.671921227444738</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="N5">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O5">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P5">
-        <v>38.99584818543339</v>
+        <v>56.52702515227605</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.69898844865319</v>
+        <v>3.912359777308579</v>
       </c>
       <c r="C6">
-        <v>12.13882595849414</v>
+        <v>17.59601988939978</v>
       </c>
       <c r="D6">
-        <v>0.01222477940175228</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E6">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F6">
-        <v>4.33326977109909</v>
+        <v>6.281357137758419</v>
       </c>
       <c r="G6">
-        <v>5.006506971496937</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="H6">
-        <v>0.1833069102988596</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I6">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J6">
-        <v>2.677373877493198</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K6">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L6">
-        <v>4.495957042179222</v>
+        <v>6.517182947228493</v>
       </c>
       <c r="M6">
-        <v>2.829093064353252</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="N6">
-        <v>0.05549611091899024</v>
+        <v>0.08044523208865802</v>
       </c>
       <c r="O6">
-        <v>0.2306451094636787</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="P6">
-        <v>40.7290785568293</v>
+        <v>59.03945561237779</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.754423384697414</v>
+        <v>3.992716332426599</v>
       </c>
       <c r="C7">
-        <v>12.38814715918208</v>
+        <v>17.95742722987526</v>
       </c>
       <c r="D7">
-        <v>0.01064008577559921</v>
+        <v>0.0154234982503686</v>
       </c>
       <c r="E7">
-        <v>1.012061671047069</v>
+        <v>1.467049396204752</v>
       </c>
       <c r="F7">
-        <v>4.516365676920181</v>
+        <v>6.546766594283422</v>
       </c>
       <c r="G7">
-        <v>5.218049519588357</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="H7">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I7">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J7">
-        <v>2.351947218350379</v>
+        <v>3.40930088086094</v>
       </c>
       <c r="K7">
-        <v>3.114990910871155</v>
+        <v>4.515382476888883</v>
       </c>
       <c r="L7">
-        <v>3.621743172866598</v>
+        <v>5.249952929711842</v>
       </c>
       <c r="M7">
-        <v>2.278991635173453</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="N7">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O7">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P7">
-        <v>39.34808728739672</v>
+        <v>57.03761870268726</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.017739330907479</v>
+        <v>4.374409969237192</v>
       </c>
       <c r="C8">
-        <v>13.5724228624498</v>
+        <v>19.67411209713375</v>
       </c>
       <c r="D8">
-        <v>0.01177200979427998</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E8">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F8">
-        <v>4.27223780249206</v>
+        <v>6.192887318916751</v>
       </c>
       <c r="G8">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H8">
-        <v>0.3280228921137489</v>
+        <v>0.4754905749161908</v>
       </c>
       <c r="I8">
-        <v>2.43117950221445</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="J8">
-        <v>2.559036910532172</v>
+        <v>3.709490895527943</v>
       </c>
       <c r="K8">
-        <v>3.38926684013025</v>
+        <v>4.912963323910546</v>
       </c>
       <c r="L8">
-        <v>2.372866216705702</v>
+        <v>3.439624333259483</v>
       </c>
       <c r="M8">
-        <v>1.493132450630883</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="N8">
-        <v>0.1017428700181487</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O8">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P8">
-        <v>40.02798965040369</v>
+        <v>58.02318151932431</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.329560846156243</v>
+        <v>4.826415591776051</v>
       </c>
       <c r="C9">
-        <v>14.97485461631947</v>
+        <v>21.70702838730831</v>
       </c>
       <c r="D9">
-        <v>0.009960931364390753</v>
+        <v>0.01443901963864294</v>
       </c>
       <c r="E9">
-        <v>0.9474619899164056</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="F9">
-        <v>4.089141896670972</v>
+        <v>5.927477862391749</v>
       </c>
       <c r="G9">
-        <v>4.724450240708378</v>
+        <v>6.84839874022684</v>
       </c>
       <c r="H9">
-        <v>0.5981593915015421</v>
+        <v>0.8670710483765831</v>
       </c>
       <c r="I9">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J9">
-        <v>2.396323580960763</v>
+        <v>3.473627312575298</v>
       </c>
       <c r="K9">
-        <v>3.173764324283818</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="L9">
-        <v>2.372866216705702</v>
+        <v>3.439624333259483</v>
       </c>
       <c r="M9">
-        <v>1.493132450630883</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="N9">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O9">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P9">
-        <v>42.87683523656587</v>
+        <v>62.15276899074374</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.19963521480259</v>
+        <v>4.638079915718191</v>
       </c>
       <c r="C10">
-        <v>14.39050805220711</v>
+        <v>20.85997993306891</v>
       </c>
       <c r="D10">
-        <v>0.01131924018680767</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E10">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F10">
-        <v>5.065653394383442</v>
+        <v>7.342994963858433</v>
       </c>
       <c r="G10">
-        <v>5.852677163862617</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="H10">
-        <v>0.723579909074446</v>
+        <v>1.04887626819748</v>
       </c>
       <c r="I10">
-        <v>5.362895960767168</v>
+        <v>7.77386744921641</v>
       </c>
       <c r="J10">
-        <v>1.286914515701151</v>
+        <v>1.865466519716364</v>
       </c>
       <c r="K10">
-        <v>1.704428988967235</v>
+        <v>2.470680977920332</v>
       </c>
       <c r="L10">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M10">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N10">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O10">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P10">
-        <v>41.66597499930649</v>
+        <v>60.39754810769035</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.314408579846379</v>
+        <v>3.354886176177317</v>
       </c>
       <c r="C11">
-        <v>10.40916012872154</v>
+        <v>15.08875646485115</v>
       </c>
       <c r="D11">
-        <v>0.00928177695318229</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E11">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F11">
-        <v>3.600886147814736</v>
+        <v>5.219719311658408</v>
       </c>
       <c r="G11">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H11">
-        <v>0.5788639272595568</v>
+        <v>0.8391010145579838</v>
       </c>
       <c r="I11">
-        <v>4.290316768613736</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="J11">
-        <v>0.6656454391557676</v>
+        <v>0.9648964757153602</v>
       </c>
       <c r="K11">
-        <v>0.8816012011899493</v>
+        <v>1.277938436855344</v>
       </c>
       <c r="L11">
-        <v>1.498652347393075</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M11">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N11">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O11">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P11">
-        <v>30.37811703650734</v>
+        <v>44.03506182596326</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.935025736293716</v>
+        <v>2.804946002088371</v>
       </c>
       <c r="C12">
-        <v>8.702868161513454</v>
+        <v>12.6153749784721</v>
       </c>
       <c r="D12">
-        <v>0.01018731616812691</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E12">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F12">
-        <v>3.173662367565531</v>
+        <v>4.60043057976673</v>
       </c>
       <c r="G12">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H12">
-        <v>0.453443409686653</v>
+        <v>0.6572957947370871</v>
       </c>
       <c r="I12">
-        <v>3.360748135414092</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="J12">
-        <v>0.5916848348051266</v>
+        <v>0.8576857561914316</v>
       </c>
       <c r="K12">
-        <v>0.7836455121688439</v>
+        <v>1.135945277204751</v>
       </c>
       <c r="L12">
-        <v>1.873315434241343</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M12">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="N12">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O12">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P12">
-        <v>26.88986321547043</v>
+        <v>38.97861041755582</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.597219094774223</v>
+        <v>2.31527324433794</v>
       </c>
       <c r="C13">
-        <v>7.183567094821308</v>
+        <v>10.41304899744967</v>
       </c>
       <c r="D13">
-        <v>0.006791544112084601</v>
+        <v>0.009844786117256553</v>
       </c>
       <c r="E13">
-        <v>0.6459968113066401</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="F13">
-        <v>2.563342681495235</v>
+        <v>3.715732391350052</v>
       </c>
       <c r="G13">
-        <v>2.961595673279878</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="H13">
-        <v>0.3376706242347414</v>
+        <v>0.4894755918254906</v>
       </c>
       <c r="I13">
-        <v>2.502684781691345</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="J13">
-        <v>0.2958424174025633</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K13">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L13">
-        <v>0.8742138693126269</v>
+        <v>1.267230017516651</v>
       </c>
       <c r="M13">
-        <v>0.5501014291797992</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="N13">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O13">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P13">
-        <v>20.00622918448909</v>
+        <v>29.00033395699419</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.223033276475707</v>
+        <v>1.772866497291308</v>
       </c>
       <c r="C14">
-        <v>5.500648990177704</v>
+        <v>7.973549449240199</v>
       </c>
       <c r="D14">
-        <v>0.006112389700876142</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E14">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F14">
-        <v>1.342703309354647</v>
+        <v>1.946336014516694</v>
       </c>
       <c r="G14">
-        <v>1.55131201933708</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="H14">
-        <v>0.1543637139358818</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I14">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J14">
-        <v>0.3698030217532042</v>
+        <v>0.5360535976196448</v>
       </c>
       <c r="K14">
-        <v>0.4897784451055275</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="L14">
-        <v>0.6244384780804476</v>
+        <v>0.9051642982261795</v>
       </c>
       <c r="M14">
-        <v>0.3929295922712851</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="N14">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O14">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P14">
-        <v>13.52367544819</v>
+        <v>19.60344954098498</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.7189218268235389</v>
+        <v>1.042124074186816</v>
       </c>
       <c r="C15">
-        <v>3.233384321421738</v>
+        <v>4.687001446791336</v>
       </c>
       <c r="D15">
-        <v>0.002716617644833841</v>
+        <v>0.003937914446902622</v>
       </c>
       <c r="E15">
-        <v>0.258398724522656</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="F15">
-        <v>0.7323836232843531</v>
+        <v>1.061637826100015</v>
       </c>
       <c r="G15">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H15">
-        <v>0.09647732120992612</v>
+        <v>0.1398501690929973</v>
       </c>
       <c r="I15">
-        <v>0.7150527947689559</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="J15">
-        <v>0.2958424174025633</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K15">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L15">
-        <v>0.8742138693126269</v>
+        <v>1.267230017516651</v>
       </c>
       <c r="M15">
-        <v>0.5501014291797992</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="N15">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O15">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P15">
-        <v>8.763176097418203</v>
+        <v>12.7027952646923</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.5786021449615947</v>
+        <v>0.8387215440443293</v>
       </c>
       <c r="C16">
-        <v>2.602290032180386</v>
+        <v>3.772189116212788</v>
       </c>
       <c r="D16">
-        <v>0.005206850485931529</v>
+        <v>0.007547669356563357</v>
       </c>
       <c r="E16">
-        <v>0.4952642220017574</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="F16">
-        <v>0.8544475604984122</v>
+        <v>1.23857746378335</v>
       </c>
       <c r="G16">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H16">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I16">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J16">
-        <v>0.1627133295714098</v>
+        <v>0.2358635829526437</v>
       </c>
       <c r="K16">
-        <v>0.2155025158464321</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="L16">
-        <v>0.9991015649287165</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M16">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="N16">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O16">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P16">
-        <v>7.820163364059431</v>
+        <v>11.33583680685833</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3672564512929885</v>
+        <v>0.5323621776568801</v>
       </c>
       <c r="C17">
-        <v>1.651752954557612</v>
+        <v>2.394323630650032</v>
       </c>
       <c r="D17">
-        <v>0.007017928915820759</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E17">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F17">
-        <v>0.4272237802492061</v>
+        <v>0.6192887318916752</v>
       </c>
       <c r="G17">
-        <v>0.4935992788799797</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="H17">
-        <v>0.009647732120992613</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I17">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J17">
-        <v>0.3402187800129478</v>
+        <v>0.4931693098100731</v>
       </c>
       <c r="K17">
-        <v>0.4505961694970853</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="L17">
-        <v>0.9991015649287165</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M17">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="P17">
-        <v>6.114137305916495</v>
+        <v>8.862840773011129</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,43 +1274,43 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2511895539503929</v>
+        <v>0.3641156403785262</v>
       </c>
       <c r="C18">
-        <v>1.129736690617234</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="D18">
-        <v>0.006112389700876142</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E18">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F18">
-        <v>0.4272237802492061</v>
+        <v>0.6192887318916752</v>
       </c>
       <c r="G18">
-        <v>0.4935992788799797</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="H18">
-        <v>0.009647732120992613</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I18">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J18">
-        <v>0.177505450441538</v>
+        <v>0.2573057268574295</v>
       </c>
       <c r="K18">
-        <v>0.2350936536506532</v>
+        <v>0.3407835831614252</v>
       </c>
       <c r="L18">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M18">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P18">
-        <v>5.621220694037557</v>
+        <v>8.14832599735705</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,43 +1318,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2598512627073032</v>
+        <v>0.3766713521157167</v>
       </c>
       <c r="C19">
-        <v>1.168693128224724</v>
+        <v>1.694096908478797</v>
       </c>
       <c r="D19">
-        <v>0.005206850485931529</v>
+        <v>0.007547669356563357</v>
       </c>
       <c r="E19">
-        <v>0.4952642220017574</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="F19">
-        <v>0.6103196860702942</v>
+        <v>0.8846981884166788</v>
       </c>
       <c r="G19">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H19">
-        <v>0.04823866060496306</v>
+        <v>0.06992508454649866</v>
       </c>
       <c r="I19">
-        <v>0.3575263973844779</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="J19">
-        <v>0.3106345382726915</v>
+        <v>0.4502850220005017</v>
       </c>
       <c r="K19">
-        <v>0.4114138938886431</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="L19">
-        <v>1.123989260544805</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M19">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="P19">
-        <v>6.203552993245304</v>
+        <v>8.992454643252108</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1362,43 +1362,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4452118301051793</v>
+        <v>0.6453635832915948</v>
       </c>
       <c r="C20">
-        <v>2.002360893025028</v>
+        <v>2.90255270319367</v>
       </c>
       <c r="D20">
-        <v>0.003169387252306149</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E20">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F20">
-        <v>0.9154795291054416</v>
+        <v>1.327047282625018</v>
       </c>
       <c r="G20">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H20">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I20">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J20">
-        <v>0.621269076545383</v>
+        <v>0.9005700440010034</v>
       </c>
       <c r="K20">
-        <v>0.8228277877772862</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="L20">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M20">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P20">
-        <v>8.651165212444967</v>
+        <v>12.54042818186588</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.032475683823684</v>
+        <v>1.496640839073115</v>
       </c>
       <c r="C21">
-        <v>4.643607362812907</v>
+        <v>6.73121171635575</v>
       </c>
       <c r="D21">
-        <v>0.002716617644833841</v>
+        <v>0.003937914446902622</v>
       </c>
       <c r="E21">
-        <v>0.258398724522656</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="F21">
-        <v>2.13611890124603</v>
+        <v>3.096443659458376</v>
       </c>
       <c r="G21">
-        <v>2.467996394399899</v>
+        <v>3.577521729969245</v>
       </c>
       <c r="H21">
-        <v>0.3666138205977193</v>
+        <v>0.5314306425533896</v>
       </c>
       <c r="I21">
-        <v>2.717200620122032</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="J21">
-        <v>1.065032702649228</v>
+        <v>1.543834361144576</v>
       </c>
       <c r="K21">
-        <v>1.410561921903919</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="L21">
-        <v>3.621743172866598</v>
+        <v>5.249952929711842</v>
       </c>
       <c r="M21">
-        <v>2.278991635173453</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="N21">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O21">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P21">
-        <v>22.04914776116008</v>
+        <v>31.96167766769899</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.838014598216324</v>
+        <v>2.664322030631838</v>
       </c>
       <c r="C22">
-        <v>8.266556060309552</v>
+        <v>11.98291213264002</v>
       </c>
       <c r="D22">
-        <v>0.00905539214944614</v>
+        <v>0.0131263814896754</v>
       </c>
       <c r="E22">
-        <v>0.8613290817421868</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="F22">
-        <v>3.845014022242855</v>
+        <v>5.573598587025078</v>
       </c>
       <c r="G22">
-        <v>4.442393509919818</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="H22">
-        <v>0.9454777478572761</v>
+        <v>1.370531657111373</v>
       </c>
       <c r="I22">
-        <v>7.007517388735765</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="J22">
-        <v>1.77505450441538</v>
+        <v>2.573057268574295</v>
       </c>
       <c r="K22">
-        <v>2.350936536506532</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="L22">
-        <v>5.619946302724028</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M22">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N22">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O22">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P22">
-        <v>40.73611249224629</v>
+        <v>59.04965176049962</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.544810032780188</v>
+        <v>3.688868108386588</v>
       </c>
       <c r="C23">
-        <v>11.4454013690808</v>
+        <v>16.59085572370235</v>
       </c>
       <c r="D23">
-        <v>0.00452769607472307</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E23">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F23">
-        <v>2.563342681495235</v>
+        <v>3.715732391350052</v>
       </c>
       <c r="G23">
-        <v>2.961595673279878</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="H23">
-        <v>0.7911140339213945</v>
+        <v>1.146771386562578</v>
       </c>
       <c r="I23">
-        <v>5.863432917105436</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="J23">
-        <v>2.1004811635582</v>
+        <v>3.044784434479582</v>
       </c>
       <c r="K23">
-        <v>2.781941568199396</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="L23">
-        <v>5.120395520259671</v>
+        <v>7.422347245454676</v>
       </c>
       <c r="M23">
-        <v>3.222022656624538</v>
+        <v>4.670531972689656</v>
       </c>
       <c r="N23">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O23">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P23">
-        <v>40.30663188722167</v>
+        <v>58.42709161391178</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.977895470625695</v>
+        <v>4.316653695246115</v>
       </c>
       <c r="C24">
-        <v>13.39322324945534</v>
+        <v>19.41435057116702</v>
       </c>
       <c r="D24">
-        <v>0.005433235289667683</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E24">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F24">
-        <v>3.173662367565531</v>
+        <v>4.60043057976673</v>
       </c>
       <c r="G24">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H24">
-        <v>0.3473183563557341</v>
+        <v>0.5034606087347904</v>
       </c>
       <c r="I24">
-        <v>2.574190061168242</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="J24">
-        <v>2.233610251389353</v>
+        <v>3.237763729622654</v>
       </c>
       <c r="K24">
-        <v>2.958261808437386</v>
+        <v>4.288193421447933</v>
       </c>
       <c r="L24">
-        <v>7.118598650117106</v>
+        <v>10.31887299977845</v>
       </c>
       <c r="M24">
-        <v>4.479397351892651</v>
+        <v>6.493178596178304</v>
       </c>
       <c r="N24">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O24">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P24">
-        <v>43.82664737877018</v>
+        <v>63.52958363513906</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.404490350918245</v>
+        <v>3.485465578244102</v>
       </c>
       <c r="C25">
-        <v>10.81430707983944</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="D25">
-        <v>0.01109285538307152</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E25">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F25">
-        <v>4.150173865278004</v>
+        <v>6.015947681233415</v>
       </c>
       <c r="G25">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H25">
-        <v>0.2604887672668005</v>
+        <v>0.3775954565510927</v>
       </c>
       <c r="I25">
-        <v>1.930642545876181</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="J25">
-        <v>2.854879327934737</v>
+        <v>4.138333773623658</v>
       </c>
       <c r="K25">
-        <v>3.781089596214672</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="L25">
-        <v>8.367475606277996</v>
+        <v>12.12920159623081</v>
       </c>
       <c r="M25">
-        <v>5.26525653643522</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="N25">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O25">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P25">
-        <v>45.8807498935525</v>
+        <v>66.50713919352354</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.461657628713851</v>
+        <v>3.568333275709559</v>
       </c>
       <c r="C26">
-        <v>11.07141956804888</v>
+        <v>16.04874471298914</v>
       </c>
       <c r="D26">
-        <v>0.01222477940175228</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E26">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F26">
-        <v>3.967077959456912</v>
+        <v>5.750538224708415</v>
       </c>
       <c r="G26">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H26">
-        <v>0.1543637139358818</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I26">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J26">
-        <v>3.727614459272297</v>
+        <v>5.40342026400602</v>
       </c>
       <c r="K26">
-        <v>4.936966726663718</v>
+        <v>7.156455246389928</v>
       </c>
       <c r="L26">
-        <v>8.617250997510176</v>
+        <v>12.49126731552128</v>
       </c>
       <c r="M26">
-        <v>5.422428373343735</v>
+        <v>7.860163563794787</v>
       </c>
       <c r="N26">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O26">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P26">
-        <v>47.7382068476147</v>
+        <v>69.19964418693368</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.418349084929301</v>
+        <v>3.505554717023604</v>
       </c>
       <c r="C27">
-        <v>10.87663738001143</v>
+        <v>15.76639522824266</v>
       </c>
       <c r="D27">
-        <v>0.01471501224284997</v>
+        <v>0.02133036992072253</v>
       </c>
       <c r="E27">
-        <v>1.399659757831053</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="F27">
-        <v>3.539854179207707</v>
+        <v>5.131249492816738</v>
       </c>
       <c r="G27">
-        <v>4.089822596434118</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="H27">
-        <v>0.125420517572904</v>
+        <v>0.1818052198208965</v>
       </c>
       <c r="I27">
-        <v>0.9295686331996423</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="J27">
-        <v>3.091553261856787</v>
+        <v>4.48140807610023</v>
       </c>
       <c r="K27">
-        <v>4.09454780108221</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="L27">
-        <v>7.992812519429732</v>
+        <v>11.5861030172951</v>
       </c>
       <c r="M27">
-        <v>5.029498781072447</v>
+        <v>7.290586493954586</v>
       </c>
       <c r="N27">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O27">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P27">
-        <v>44.03165135544419</v>
+        <v>63.82675026915259</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.46858699571938</v>
+        <v>3.57837784509931</v>
       </c>
       <c r="C28">
-        <v>11.10258471813488</v>
+        <v>16.09392063054857</v>
       </c>
       <c r="D28">
-        <v>0.01131924018680767</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E28">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F28">
-        <v>3.112630398958501</v>
+        <v>4.511960760925062</v>
       </c>
       <c r="G28">
-        <v>3.596223317554138</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="H28">
-        <v>0.1833069102988596</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I28">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J28">
-        <v>2.618205394012687</v>
+        <v>3.795259471147085</v>
       </c>
       <c r="K28">
-        <v>3.467631391347135</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="L28">
-        <v>5.869721693956208</v>
+        <v>8.508544403326086</v>
       </c>
       <c r="M28">
-        <v>3.693538167350079</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="N28">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O28">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P28">
-        <v>39.17898253391987</v>
+        <v>56.7924903339517</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.612371361084087</v>
+        <v>3.786802659936673</v>
       </c>
       <c r="C29">
-        <v>11.74926158241924</v>
+        <v>17.03132091990683</v>
       </c>
       <c r="D29">
-        <v>0.01018731616812691</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E29">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F29">
-        <v>4.516365676920181</v>
+        <v>6.546766594283422</v>
       </c>
       <c r="G29">
-        <v>5.218049519588357</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="H29">
-        <v>0.2411933030248154</v>
+        <v>0.3496254227324932</v>
       </c>
       <c r="I29">
-        <v>1.787631986922389</v>
+        <v>2.591289149738803</v>
       </c>
       <c r="J29">
-        <v>2.98800841576589</v>
+        <v>4.331313068766729</v>
       </c>
       <c r="K29">
-        <v>3.957409836452662</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="L29">
-        <v>5.74483399834012</v>
+        <v>8.327511543680847</v>
       </c>
       <c r="M29">
-        <v>3.614952248895823</v>
+        <v>5.240109042529858</v>
       </c>
       <c r="N29">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O29">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P29">
-        <v>44.0292331067041</v>
+        <v>63.82324485989192</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.293620478829795</v>
+        <v>3.324752468008059</v>
       </c>
       <c r="C30">
-        <v>10.31566467846357</v>
+        <v>14.95322871217285</v>
       </c>
       <c r="D30">
-        <v>0.009734546560654599</v>
+        <v>0.01411086010140106</v>
       </c>
       <c r="E30">
-        <v>0.9259287628728509</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="F30">
-        <v>4.577397645527209</v>
+        <v>6.635236413125091</v>
       </c>
       <c r="G30">
-        <v>5.288563702285499</v>
+        <v>7.666117992791239</v>
       </c>
       <c r="H30">
-        <v>0.1543637139358818</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I30">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J30">
-        <v>2.721750240103582</v>
+        <v>3.945354478480585</v>
       </c>
       <c r="K30">
-        <v>3.604769355976682</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="L30">
-        <v>3.371967781634417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M30">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N30">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O30">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P30">
-        <v>36.9111868032623</v>
+        <v>53.50517252264196</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.697256106901806</v>
+        <v>3.90984863496114</v>
       </c>
       <c r="C31">
-        <v>12.13103467097264</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="D31">
-        <v>0.007470698523293064</v>
+        <v>0.01082926472898221</v>
       </c>
       <c r="E31">
-        <v>0.7105964924373042</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="F31">
-        <v>3.295726304779589</v>
+        <v>4.777370217450065</v>
       </c>
       <c r="G31">
-        <v>3.807765865645559</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="H31">
-        <v>0.1447159818148892</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I31">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J31">
-        <v>2.66258175662307</v>
+        <v>3.859585902861441</v>
       </c>
       <c r="K31">
-        <v>3.526404804759797</v>
+        <v>5.111753747421377</v>
       </c>
       <c r="L31">
-        <v>5.245283215875761</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M31">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N31">
-        <v>0.1387402772974756</v>
+        <v>0.201113080221645</v>
       </c>
       <c r="O31">
-        <v>0.5766127736591966</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="P31">
-        <v>39.31737671652262</v>
+        <v>56.99310172734191</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.081835975708615</v>
+        <v>4.467322236092401</v>
       </c>
       <c r="C32">
-        <v>13.86070050074524</v>
+        <v>20.09198933455852</v>
       </c>
       <c r="D32">
-        <v>0.009960931364390753</v>
+        <v>0.01443901963864294</v>
       </c>
       <c r="E32">
-        <v>0.9474619899164056</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="F32">
-        <v>3.967077959456912</v>
+        <v>5.750538224708415</v>
       </c>
       <c r="G32">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H32">
-        <v>0.3183751599927564</v>
+        <v>0.4615055580068911</v>
       </c>
       <c r="I32">
-        <v>2.359674222737553</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="J32">
-        <v>2.573829031402302</v>
+        <v>3.730933039432727</v>
       </c>
       <c r="K32">
-        <v>3.408857977934471</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="L32">
-        <v>4.246181650947046</v>
+        <v>6.15511722793802</v>
       </c>
       <c r="M32">
-        <v>2.671921227444738</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="N32">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O32">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P32">
-        <v>42.45851033353853</v>
+        <v>61.54637976174671</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.379798756946322</v>
+        <v>4.899238719851756</v>
       </c>
       <c r="C33">
-        <v>15.20080195444291</v>
+        <v>22.0345537896142</v>
       </c>
       <c r="D33">
-        <v>0.007470698523293064</v>
+        <v>0.01082926472898221</v>
       </c>
       <c r="E33">
-        <v>0.7105964924373042</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="F33">
-        <v>2.990566461744442</v>
+        <v>4.335021123241727</v>
       </c>
       <c r="G33">
-        <v>3.45519495215986</v>
+        <v>5.008530421956942</v>
       </c>
       <c r="H33">
-        <v>0.5402729987755864</v>
+        <v>0.783160946920785</v>
       </c>
       <c r="I33">
-        <v>4.004295650706152</v>
+        <v>5.804487695414919</v>
       </c>
       <c r="J33">
-        <v>2.1004811635582</v>
+        <v>3.044784434479582</v>
       </c>
       <c r="K33">
-        <v>2.781941568199396</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="L33">
-        <v>2.123090825473523</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M33">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N33">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O33">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P33">
-        <v>38.96430356046914</v>
+        <v>56.48129916113222</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,49 +2056,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.527047805813793</v>
+        <v>5.112685819383993</v>
       </c>
       <c r="C34">
-        <v>15.86306139377026</v>
+        <v>22.99454203775219</v>
       </c>
       <c r="D34">
-        <v>0.005206850485931529</v>
+        <v>0.007547669356563357</v>
       </c>
       <c r="E34">
-        <v>0.4952642220017574</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="F34">
-        <v>3.417790241993649</v>
+        <v>4.954309855133402</v>
       </c>
       <c r="G34">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H34">
-        <v>0.6946367127114682</v>
+        <v>1.006921217469581</v>
       </c>
       <c r="I34">
-        <v>5.148380122336484</v>
+        <v>7.462912751247754</v>
       </c>
       <c r="J34">
-        <v>1.420043603532304</v>
+        <v>2.058445814859436</v>
       </c>
       <c r="K34">
-        <v>1.880749229205225</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="L34">
-        <v>1.123989260544805</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M34">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N34">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O34">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P34">
-        <v>38.47068795650939</v>
+        <v>55.76577115087056</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2106,49 +2106,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.473784020973526</v>
+        <v>3.585911272141626</v>
       </c>
       <c r="C35">
-        <v>11.12595858069937</v>
+        <v>16.12780256871814</v>
       </c>
       <c r="D35">
-        <v>0.004754080878459224</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E35">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F35">
-        <v>2.807470555923354</v>
+        <v>4.069611666716723</v>
       </c>
       <c r="G35">
-        <v>3.243652404068439</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="H35">
-        <v>0.5209775345336011</v>
+        <v>0.7551909131021853</v>
       </c>
       <c r="I35">
-        <v>3.861285091752363</v>
+        <v>5.597184563435817</v>
       </c>
       <c r="J35">
-        <v>0.8283587687271775</v>
+        <v>1.200760058668004</v>
       </c>
       <c r="K35">
-        <v>1.097103717036382</v>
+        <v>1.590323388086651</v>
       </c>
       <c r="L35">
-        <v>1.873315434241343</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M35">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="N35">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O35">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P35">
-        <v>29.70609775054807</v>
+        <v>43.06092604362058</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2156,49 +2156,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.189679973746873</v>
+        <v>3.174083927161774</v>
       </c>
       <c r="C36">
-        <v>9.848187427173677</v>
+        <v>14.27558994878133</v>
       </c>
       <c r="D36">
-        <v>0.003169387252306149</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E36">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F36">
-        <v>1.891991026817913</v>
+        <v>2.742564384091704</v>
       </c>
       <c r="G36">
-        <v>2.18593966361134</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="H36">
-        <v>0.5595684630175716</v>
+        <v>0.8111309807393841</v>
       </c>
       <c r="I36">
-        <v>4.147306209659945</v>
+        <v>6.011790827394027</v>
       </c>
       <c r="J36">
-        <v>0.6508533182856393</v>
+        <v>0.9434543318105749</v>
       </c>
       <c r="K36">
-        <v>0.8620100633857283</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="L36">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M36">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N36">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O36">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P36">
-        <v>25.82263273232539</v>
+        <v>37.43159023024908</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2206,49 +2206,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.751397510647223</v>
+        <v>2.538764913259931</v>
       </c>
       <c r="C37">
-        <v>7.876991684234643</v>
+        <v>11.41821316314709</v>
       </c>
       <c r="D37">
-        <v>0.003169387252306149</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E37">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F37">
-        <v>2.075086932639002</v>
+        <v>3.007973840616708</v>
       </c>
       <c r="G37">
-        <v>2.397482211702759</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="H37">
-        <v>0.3087274278717636</v>
+        <v>0.4475205410975914</v>
       </c>
       <c r="I37">
-        <v>2.288168943260659</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="J37">
-        <v>0.5768927139349985</v>
+        <v>0.8362436122866457</v>
       </c>
       <c r="K37">
-        <v>0.7640543743646229</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="L37">
-        <v>1.123989260544805</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M37">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N37">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O37">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P37">
-        <v>20.3654597047393</v>
+        <v>29.52106202417428</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2256,49 +2256,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.347761882575212</v>
+        <v>1.953668746306851</v>
       </c>
       <c r="C38">
-        <v>6.061621691725571</v>
+        <v>8.786715965310025</v>
       </c>
       <c r="D38">
-        <v>0.005433235289667683</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E38">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F38">
-        <v>1.220639372140588</v>
+        <v>1.769396376833358</v>
       </c>
       <c r="G38">
-        <v>1.410283653942799</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="H38">
-        <v>0.1543637139358818</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I38">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J38">
-        <v>0.428971505233717</v>
+        <v>0.621822173238788</v>
       </c>
       <c r="K38">
-        <v>0.5681429963224118</v>
+        <v>0.8235603259734442</v>
       </c>
       <c r="L38">
-        <v>1.123989260544805</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M38">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N38">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O38">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P38">
-        <v>14.78474290526883</v>
+        <v>21.43144906355056</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,49 +2306,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.8419180911716623</v>
+        <v>1.220415180854923</v>
       </c>
       <c r="C39">
-        <v>3.786565735448108</v>
+        <v>5.488873983471302</v>
       </c>
       <c r="D39">
-        <v>0.004301311270986916</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E39">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F39">
-        <v>0.8544475604984122</v>
+        <v>1.23857746378335</v>
       </c>
       <c r="G39">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H39">
-        <v>0.0675341248469483</v>
+        <v>0.09789511836509812</v>
       </c>
       <c r="I39">
-        <v>0.500536956338269</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="J39">
-        <v>0.2218818130519225</v>
+        <v>0.3216321585717869</v>
       </c>
       <c r="K39">
-        <v>0.2938670670633165</v>
+        <v>0.4259794789517813</v>
       </c>
       <c r="L39">
-        <v>0.7493261736965373</v>
+        <v>1.086197157871415</v>
       </c>
       <c r="M39">
-        <v>0.4715155107255419</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="N39">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O39">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P39">
-        <v>9.235914419096314</v>
+        <v>13.38806029272483</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2356,49 +2356,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.6392341062599661</v>
+        <v>0.9266115262046634</v>
       </c>
       <c r="C40">
-        <v>2.874985095432821</v>
+        <v>4.167478394857841</v>
       </c>
       <c r="D40">
-        <v>0.00928177695318229</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E40">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F40">
-        <v>0.6713516546773237</v>
+        <v>0.9731680072583468</v>
       </c>
       <c r="G40">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H40">
-        <v>0.03859092848397045</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I40">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J40">
-        <v>0.2070896921817944</v>
+        <v>0.300190014667001</v>
       </c>
       <c r="K40">
-        <v>0.2742759292590954</v>
+        <v>0.3975808470216627</v>
       </c>
       <c r="L40">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M40">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="N40">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O40">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P40">
-        <v>8.992938781178053</v>
+        <v>13.03585125932506</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2406,49 +2406,49 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.4573382223648536</v>
+        <v>0.6629415797236616</v>
       </c>
       <c r="C41">
-        <v>2.056899905675516</v>
+        <v>2.981610558922682</v>
       </c>
       <c r="D41">
-        <v>0.007017928915820759</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E41">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F41">
-        <v>0.4272237802492061</v>
+        <v>0.6192887318916752</v>
       </c>
       <c r="G41">
-        <v>0.4935992788799797</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="H41">
-        <v>0.009647732120992613</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I41">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J41">
-        <v>0.3698030217532042</v>
+        <v>0.5360535976196448</v>
       </c>
       <c r="K41">
-        <v>0.4897784451055275</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="L41">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M41">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="N41">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O41">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P41">
-        <v>7.336243591063115</v>
+        <v>10.63436353591497</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2456,43 +2456,43 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.337806641519494</v>
+        <v>0.4896727577504319</v>
       </c>
       <c r="C42">
-        <v>1.519301066692141</v>
+        <v>2.202325981022435</v>
       </c>
       <c r="D42">
-        <v>0.004074926467250763</v>
+        <v>0.005906871670353931</v>
       </c>
       <c r="E42">
-        <v>0.3875980867839841</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="F42">
-        <v>0.6713516546773237</v>
+        <v>0.9731680072583468</v>
       </c>
       <c r="G42">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H42">
-        <v>0.01929546424198523</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I42">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J42">
-        <v>0.1922975713116662</v>
+        <v>0.2787478707622152</v>
       </c>
       <c r="K42">
-        <v>0.2546847914548743</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="L42">
-        <v>1.248876956160895</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M42">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="P42">
-        <v>6.339812912474515</v>
+        <v>9.189972282691322</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2500,49 +2500,49 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2650482879614492</v>
+        <v>0.3842047791580309</v>
       </c>
       <c r="C43">
-        <v>1.192066990789219</v>
+        <v>1.727978846648373</v>
       </c>
       <c r="D43">
-        <v>0.003622156859778456</v>
+        <v>0.005250552595870163</v>
       </c>
       <c r="E43">
-        <v>0.3445316326968748</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="F43">
-        <v>0.6713516546773237</v>
+        <v>0.9731680072583468</v>
       </c>
       <c r="G43">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H43">
-        <v>0.01929546424198523</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I43">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J43">
-        <v>0.2366739339220507</v>
+        <v>0.3430743024765726</v>
       </c>
       <c r="K43">
-        <v>0.3134582048675376</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="L43">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M43">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N43">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O43">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P43">
-        <v>6.861035695020512</v>
+        <v>9.94551869878191</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4365501213482694</v>
+        <v>0.6328078715544045</v>
       </c>
       <c r="C44">
-        <v>1.963404455417537</v>
+        <v>2.84608280624438</v>
       </c>
       <c r="D44">
-        <v>0.002943002448569995</v>
+        <v>0.004266073984144505</v>
       </c>
       <c r="E44">
-        <v>0.2799319515662109</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="F44">
-        <v>0.7323836232843531</v>
+        <v>1.061637826100015</v>
       </c>
       <c r="G44">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H44">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I44">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J44">
-        <v>0.6508533182856393</v>
+        <v>0.9434543318105749</v>
       </c>
       <c r="K44">
-        <v>0.8620100633857283</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="L44">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M44">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="P44">
-        <v>8.866336359880506</v>
+        <v>12.85233279297461</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.037672709077831</v>
+        <v>1.504174266115429</v>
       </c>
       <c r="C45">
-        <v>4.666981225377401</v>
+        <v>6.765093654525325</v>
       </c>
       <c r="D45">
-        <v>0.002490232841097688</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E45">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F45">
-        <v>1.159607403533559</v>
+        <v>1.68092655799169</v>
       </c>
       <c r="G45">
-        <v>1.339769471245659</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="H45">
-        <v>0.3087274278717636</v>
+        <v>0.4475205410975914</v>
       </c>
       <c r="I45">
-        <v>2.288168943260659</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="J45">
-        <v>1.420043603532304</v>
+        <v>2.058445814859436</v>
       </c>
       <c r="K45">
-        <v>1.880749229205225</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="L45">
-        <v>3.746630868482686</v>
+        <v>5.430985789357079</v>
       </c>
       <c r="M45">
-        <v>2.35757755362771</v>
+        <v>3.417462419041212</v>
       </c>
       <c r="N45">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O45">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P45">
-        <v>20.54066457232922</v>
+        <v>29.77503290615027</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.896914217763313</v>
+        <v>2.749700870444733</v>
       </c>
       <c r="C46">
-        <v>8.531459836040488</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="D46">
-        <v>0.002490232841097688</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E46">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F46">
-        <v>2.502310712888206</v>
+        <v>3.627262572508384</v>
       </c>
       <c r="G46">
-        <v>2.891081490582738</v>
+        <v>4.190811169392544</v>
       </c>
       <c r="H46">
-        <v>0.9454777478572761</v>
+        <v>1.370531657111373</v>
       </c>
       <c r="I46">
-        <v>7.007517388735765</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="J46">
-        <v>1.804638746155637</v>
+        <v>2.615941556383866</v>
       </c>
       <c r="K46">
-        <v>2.390118812114974</v>
+        <v>3.464633095474489</v>
       </c>
       <c r="L46">
-        <v>7.368374041349286</v>
+        <v>10.68093871906891</v>
       </c>
       <c r="M46">
-        <v>4.636569188801166</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="N46">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O46">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P46">
-        <v>40.4045787261975</v>
+        <v>58.56907194484454</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.589850918316121</v>
+        <v>3.754157809419978</v>
       </c>
       <c r="C47">
-        <v>11.64797484463975</v>
+        <v>16.88449918783868</v>
       </c>
       <c r="D47">
-        <v>0.003848541663514609</v>
+        <v>0.005578712133112046</v>
       </c>
       <c r="E47">
-        <v>0.3660648597404293</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="F47">
-        <v>3.173662367565531</v>
+        <v>4.60043057976673</v>
       </c>
       <c r="G47">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H47">
-        <v>0.752523105437424</v>
+        <v>1.090831318925378</v>
       </c>
       <c r="I47">
-        <v>5.577411799197856</v>
+        <v>8.084822147185069</v>
       </c>
       <c r="J47">
-        <v>1.878599350506277</v>
+        <v>2.723152275907795</v>
       </c>
       <c r="K47">
-        <v>2.488074501136079</v>
+        <v>3.606626255125083</v>
       </c>
       <c r="L47">
-        <v>5.994609389572298</v>
+        <v>8.689577262971321</v>
       </c>
       <c r="M47">
-        <v>3.772124085804335</v>
+        <v>5.467939870465939</v>
       </c>
       <c r="N47">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O47">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P47">
-        <v>42.24531268761068</v>
+        <v>61.23733586978002</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.858363889780334</v>
+        <v>4.143384873272885</v>
       </c>
       <c r="C48">
-        <v>12.85562441047196</v>
+        <v>18.63506599326676</v>
       </c>
       <c r="D48">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E48">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F48">
-        <v>3.661918116421766</v>
+        <v>5.308189130500073</v>
       </c>
       <c r="G48">
-        <v>4.230850961828398</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="H48">
-        <v>0.3859092848397045</v>
+        <v>0.5594006763719893</v>
       </c>
       <c r="I48">
-        <v>2.860211179075824</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="J48">
-        <v>2.322362976610122</v>
+        <v>3.36641659305137</v>
       </c>
       <c r="K48">
-        <v>3.075808635262713</v>
+        <v>4.458585213028645</v>
       </c>
       <c r="L48">
-        <v>6.24438478080448</v>
+        <v>9.051642982261798</v>
       </c>
       <c r="M48">
-        <v>3.929295922712849</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="N48">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O48">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P48">
-        <v>43.39793228456443</v>
+        <v>62.90813314640776</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.404490350918245</v>
+        <v>3.485465578244102</v>
       </c>
       <c r="C49">
-        <v>10.81430707983944</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="D49">
-        <v>0.01109285538307152</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E49">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F49">
-        <v>4.150173865278004</v>
+        <v>6.015947681233415</v>
       </c>
       <c r="G49">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H49">
-        <v>0.2604887672668005</v>
+        <v>0.3775954565510927</v>
       </c>
       <c r="I49">
-        <v>1.930642545876181</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="J49">
-        <v>2.854879327934737</v>
+        <v>4.138333773623658</v>
       </c>
       <c r="K49">
-        <v>3.781089596214672</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="L49">
-        <v>8.367475606277996</v>
+        <v>12.12920159623081</v>
       </c>
       <c r="M49">
-        <v>5.26525653643522</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="N49">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O49">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P49">
-        <v>45.8807498935525</v>
+        <v>66.50713919352354</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>3.47039872415947</v>
+        <v>2.358705311621285</v>
       </c>
       <c r="C2">
-        <v>15.60827951678464</v>
+        <v>10.60838673816257</v>
       </c>
       <c r="D2">
-        <v>0.02133036992072253</v>
+        <v>0.01449748597491219</v>
       </c>
       <c r="E2">
-        <v>2.028898101134232</v>
+        <v>1.378969135323986</v>
       </c>
       <c r="F2">
-        <v>6.36982695660009</v>
+        <v>4.329342496597421</v>
       </c>
       <c r="G2">
-        <v>7.35947327307959</v>
+        <v>5.00196953713208</v>
       </c>
       <c r="H2">
-        <v>0.2237602705487957</v>
+        <v>0.1520818155559601</v>
       </c>
       <c r="I2">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="J2">
-        <v>5.060345961529447</v>
+        <v>3.439335317584201</v>
       </c>
       <c r="K2">
-        <v>6.702077135508029</v>
+        <v>4.555161004517454</v>
       </c>
       <c r="L2">
-        <v>10.49990585942368</v>
+        <v>7.136408721491921</v>
       </c>
       <c r="M2">
-        <v>6.607094010146345</v>
+        <v>4.49060438722004</v>
       </c>
       <c r="N2">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O2">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P2">
-        <v>66.16285571510603</v>
+        <v>44.96851561200668</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>3.608511553268567</v>
+        <v>2.452575638784214</v>
       </c>
       <c r="C3">
-        <v>16.22944838322687</v>
+        <v>11.03057289633836</v>
       </c>
       <c r="D3">
-        <v>0.01870509362278745</v>
+        <v>0.01271318000876916</v>
       </c>
       <c r="E3">
-        <v>1.779187565610019</v>
+        <v>1.209249857130265</v>
       </c>
       <c r="F3">
-        <v>5.839008043550085</v>
+        <v>3.968563955214302</v>
       </c>
       <c r="G3">
-        <v>6.746183833656289</v>
+        <v>4.585138742371072</v>
       </c>
       <c r="H3">
-        <v>0.2237602705487957</v>
+        <v>0.1520818155559601</v>
       </c>
       <c r="I3">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="J3">
-        <v>3.966796622385372</v>
+        <v>2.696089126072361</v>
       </c>
       <c r="K3">
-        <v>5.253746907071971</v>
+        <v>3.570782990829359</v>
       </c>
       <c r="L3">
-        <v>9.051642982261798</v>
+        <v>6.152076484044759</v>
       </c>
       <c r="M3">
-        <v>5.69577069840202</v>
+        <v>3.871210678637965</v>
       </c>
       <c r="N3">
-        <v>0.147482925495873</v>
+        <v>0.1002388449830978</v>
       </c>
       <c r="O3">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="P3">
-        <v>60.83161767003987</v>
+        <v>41.34506467915727</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>3.80438065636874</v>
+        <v>2.585700830033462</v>
       </c>
       <c r="C4">
-        <v>17.11037877563584</v>
+        <v>11.6293096297513</v>
       </c>
       <c r="D4">
-        <v>0.02001773177175499</v>
+        <v>0.01360533299184067</v>
       </c>
       <c r="E4">
-        <v>1.904042833372125</v>
+        <v>1.294109496227125</v>
       </c>
       <c r="F4">
-        <v>5.750538224708415</v>
+        <v>3.908434198317116</v>
       </c>
       <c r="G4">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="H4">
-        <v>0.209775253639496</v>
+        <v>0.1425767020837126</v>
       </c>
       <c r="I4">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="J4">
-        <v>4.48140807610023</v>
+        <v>3.045852039724991</v>
       </c>
       <c r="K4">
-        <v>5.935314073394821</v>
+        <v>4.034019703153168</v>
       </c>
       <c r="L4">
-        <v>8.146478684035621</v>
+        <v>5.536868835640286</v>
       </c>
       <c r="M4">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="N4">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O4">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P4">
-        <v>61.37857095506558</v>
+        <v>41.7168091734189</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>3.784291517589236</v>
+        <v>2.57204696426431</v>
       </c>
       <c r="C5">
-        <v>17.02002694051697</v>
+        <v>11.56790073401664</v>
       </c>
       <c r="D5">
-        <v>0.01476717917588483</v>
+        <v>0.0100367210595546</v>
       </c>
       <c r="E5">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="F5">
-        <v>5.308189130500073</v>
+        <v>3.607785413831183</v>
       </c>
       <c r="G5">
-        <v>6.132894394232991</v>
+        <v>4.168307947610066</v>
       </c>
       <c r="H5">
-        <v>0.209775253639496</v>
+        <v>0.1425767020837126</v>
       </c>
       <c r="I5">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="J5">
-        <v>4.524292363909802</v>
+        <v>3.074998949196043</v>
       </c>
       <c r="K5">
-        <v>5.99211133725506</v>
+        <v>4.072622762513486</v>
       </c>
       <c r="L5">
-        <v>6.15511722793802</v>
+        <v>4.183412009150436</v>
       </c>
       <c r="M5">
-        <v>3.873124074913375</v>
+        <v>2.632423261473816</v>
       </c>
       <c r="N5">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O5">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P5">
-        <v>56.52702515227605</v>
+        <v>38.41938782095307</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>3.912359777308579</v>
+        <v>2.659090358542663</v>
       </c>
       <c r="C6">
-        <v>17.59601988939978</v>
+        <v>11.95938244432509</v>
       </c>
       <c r="D6">
-        <v>0.01772061501106179</v>
+        <v>0.01204406527146552</v>
       </c>
       <c r="E6">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="F6">
-        <v>6.281357137758419</v>
+        <v>4.269212739700236</v>
       </c>
       <c r="G6">
-        <v>7.257258366509039</v>
+        <v>4.932497738005243</v>
       </c>
       <c r="H6">
-        <v>0.2657153212766948</v>
+        <v>0.1805971559727026</v>
       </c>
       <c r="I6">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="J6">
-        <v>3.881028046766228</v>
+        <v>2.637795307130256</v>
       </c>
       <c r="K6">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="L6">
-        <v>6.517182947228493</v>
+        <v>4.429495068512225</v>
       </c>
       <c r="M6">
-        <v>4.100954902849455</v>
+        <v>2.787271688619335</v>
       </c>
       <c r="N6">
-        <v>0.08044523208865802</v>
+        <v>0.0546757336271443</v>
       </c>
       <c r="O6">
-        <v>0.3343351282399586</v>
+        <v>0.2272355730629113</v>
       </c>
       <c r="P6">
-        <v>59.03945561237779</v>
+        <v>40.12699652598922</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>3.992716332426599</v>
+        <v>2.713705821619277</v>
       </c>
       <c r="C7">
-        <v>17.95742722987526</v>
+        <v>12.20501802726374</v>
       </c>
       <c r="D7">
-        <v>0.0154234982503686</v>
+        <v>0.01048279755109036</v>
       </c>
       <c r="E7">
-        <v>1.467049396204752</v>
+        <v>0.9971007593881129</v>
       </c>
       <c r="F7">
-        <v>6.546766594283422</v>
+        <v>4.449602010391792</v>
       </c>
       <c r="G7">
-        <v>7.563903086220692</v>
+        <v>5.140913135385746</v>
       </c>
       <c r="H7">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I7">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J7">
-        <v>3.40930088086094</v>
+        <v>2.317179302948678</v>
       </c>
       <c r="K7">
-        <v>4.515382476888883</v>
+        <v>3.068943219145233</v>
       </c>
       <c r="L7">
-        <v>5.249952929711842</v>
+        <v>3.56820436074596</v>
       </c>
       <c r="M7">
-        <v>3.303547005073173</v>
+        <v>2.24530219361002</v>
       </c>
       <c r="N7">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O7">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P7">
-        <v>57.03761870268726</v>
+        <v>38.76641991010477</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>4.374409969237192</v>
+        <v>2.973129271233198</v>
       </c>
       <c r="C8">
-        <v>19.67411209713375</v>
+        <v>13.37178704622228</v>
       </c>
       <c r="D8">
-        <v>0.01706429593657802</v>
+        <v>0.01159798877992975</v>
       </c>
       <c r="E8">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="F8">
-        <v>6.192887318916751</v>
+        <v>4.209082982803046</v>
       </c>
       <c r="G8">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="H8">
-        <v>0.4754905749161908</v>
+        <v>0.3231738580564152</v>
       </c>
       <c r="I8">
-        <v>3.524153243644772</v>
+        <v>2.395240326964322</v>
       </c>
       <c r="J8">
-        <v>3.709490895527943</v>
+        <v>2.521207669246046</v>
       </c>
       <c r="K8">
-        <v>4.912963323910546</v>
+        <v>3.339164634667456</v>
       </c>
       <c r="L8">
-        <v>3.439624333259483</v>
+        <v>2.337789063937009</v>
       </c>
       <c r="M8">
-        <v>2.164392865392768</v>
+        <v>1.471060057882427</v>
       </c>
       <c r="N8">
-        <v>0.147482925495873</v>
+        <v>0.1002388449830978</v>
       </c>
       <c r="O8">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="P8">
-        <v>58.02318151932431</v>
+        <v>39.43627154252815</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>4.826415591776051</v>
+        <v>3.280341251039152</v>
       </c>
       <c r="C9">
-        <v>21.70702838730831</v>
+        <v>14.75348720025214</v>
       </c>
       <c r="D9">
-        <v>0.01443901963864294</v>
+        <v>0.009813682813786716</v>
       </c>
       <c r="E9">
-        <v>1.373407945383172</v>
+        <v>0.9334560300654674</v>
       </c>
       <c r="F9">
-        <v>5.927477862391749</v>
+        <v>4.028693712111488</v>
       </c>
       <c r="G9">
-        <v>6.84839874022684</v>
+        <v>4.654610541497908</v>
       </c>
       <c r="H9">
-        <v>0.8670710483765831</v>
+        <v>0.5893170352793455</v>
       </c>
       <c r="I9">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="J9">
-        <v>3.473627312575298</v>
+        <v>2.360899667155257</v>
       </c>
       <c r="K9">
-        <v>4.60057837267924</v>
+        <v>3.12684780818571</v>
       </c>
       <c r="L9">
-        <v>3.439624333259483</v>
+        <v>2.337789063937009</v>
       </c>
       <c r="M9">
-        <v>2.164392865392768</v>
+        <v>1.471060057882427</v>
       </c>
       <c r="N9">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O9">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P9">
-        <v>62.15276899074374</v>
+        <v>42.24300375915578</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>4.638079915718191</v>
+        <v>3.152336259453334</v>
       </c>
       <c r="C10">
-        <v>20.85997993306891</v>
+        <v>14.1777788027397</v>
       </c>
       <c r="D10">
-        <v>0.01640797686209425</v>
+        <v>0.011151912288394</v>
       </c>
       <c r="E10">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="F10">
-        <v>7.342994963858433</v>
+        <v>4.990769822466471</v>
       </c>
       <c r="G10">
-        <v>8.483837245355639</v>
+        <v>5.766159327527258</v>
       </c>
       <c r="H10">
-        <v>1.04887626819748</v>
+        <v>0.7128835104185631</v>
       </c>
       <c r="I10">
-        <v>7.77386744921641</v>
+        <v>5.283618368303653</v>
       </c>
       <c r="J10">
-        <v>1.865466519716364</v>
+        <v>1.267890561990786</v>
       </c>
       <c r="K10">
-        <v>2.470680977920332</v>
+        <v>1.679233082173807</v>
       </c>
       <c r="L10">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M10">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N10">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O10">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P10">
-        <v>60.39754810769035</v>
+        <v>41.05004319496891</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>3.354886176177317</v>
+        <v>2.28019558344865</v>
       </c>
       <c r="C11">
-        <v>15.08875646485115</v>
+        <v>10.25528558768827</v>
       </c>
       <c r="D11">
-        <v>0.01345454102691729</v>
+        <v>0.009144568076483076</v>
       </c>
       <c r="E11">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="F11">
-        <v>5.219719311658408</v>
+        <v>3.547655656933998</v>
       </c>
       <c r="G11">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="H11">
-        <v>0.8391010145579838</v>
+        <v>0.5703068083348505</v>
       </c>
       <c r="I11">
-        <v>6.219093959373126</v>
+        <v>4.226894694642924</v>
       </c>
       <c r="J11">
-        <v>0.9648964757153602</v>
+        <v>0.6558054630986823</v>
       </c>
       <c r="K11">
-        <v>1.277938436855344</v>
+        <v>0.8685688356071416</v>
       </c>
       <c r="L11">
-        <v>2.17239431574283</v>
+        <v>1.476498356170743</v>
       </c>
       <c r="M11">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="N11">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O11">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P11">
-        <v>44.03506182596326</v>
+        <v>29.92904921944593</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.804946002088371</v>
+        <v>1.906421008018071</v>
       </c>
       <c r="C12">
-        <v>12.6153749784721</v>
+        <v>8.574217066951942</v>
       </c>
       <c r="D12">
-        <v>0.01476717917588483</v>
+        <v>0.0100367210595546</v>
       </c>
       <c r="E12">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="F12">
-        <v>4.60043057976673</v>
+        <v>3.126747358653693</v>
       </c>
       <c r="G12">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="H12">
-        <v>0.6572957947370871</v>
+        <v>0.4467403331956329</v>
       </c>
       <c r="I12">
-        <v>4.871623601508951</v>
+        <v>3.311067510803624</v>
       </c>
       <c r="J12">
-        <v>0.8576857561914316</v>
+        <v>0.5829381894210508</v>
       </c>
       <c r="K12">
-        <v>1.135945277204751</v>
+        <v>0.7720611872063481</v>
       </c>
       <c r="L12">
-        <v>2.715492894678539</v>
+        <v>1.845622945213428</v>
       </c>
       <c r="M12">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="N12">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O12">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P12">
-        <v>38.97861041755582</v>
+        <v>26.49236088967652</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.31527324433794</v>
+        <v>1.573608029894952</v>
       </c>
       <c r="C13">
-        <v>10.41304899744967</v>
+        <v>7.077375233419597</v>
       </c>
       <c r="D13">
-        <v>0.009844786117256553</v>
+        <v>0.006691147373036397</v>
       </c>
       <c r="E13">
-        <v>0.9364145082157992</v>
+        <v>0.6364472932264552</v>
       </c>
       <c r="F13">
-        <v>3.715732391350052</v>
+        <v>2.525449789681829</v>
       </c>
       <c r="G13">
-        <v>4.293026075963094</v>
+        <v>2.917815563327046</v>
       </c>
       <c r="H13">
-        <v>0.4894755918254906</v>
+        <v>0.3326789715286627</v>
       </c>
       <c r="I13">
-        <v>3.627804809634324</v>
+        <v>2.465688571875039</v>
       </c>
       <c r="J13">
-        <v>0.4288428780957158</v>
+        <v>0.2914690947105254</v>
       </c>
       <c r="K13">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="L13">
-        <v>1.267230017516651</v>
+        <v>0.8612907077662666</v>
       </c>
       <c r="M13">
-        <v>0.7974078977762828</v>
+        <v>0.5419694950093152</v>
       </c>
       <c r="N13">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O13">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P13">
-        <v>29.00033395699419</v>
+        <v>19.71048492697925</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.772866497291308</v>
+        <v>1.204953654127805</v>
       </c>
       <c r="C14">
-        <v>7.973549449240199</v>
+        <v>5.419335048583776</v>
       </c>
       <c r="D14">
-        <v>0.008860307505530896</v>
+        <v>0.006022032635732758</v>
       </c>
       <c r="E14">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="F14">
-        <v>1.946336014516694</v>
+        <v>1.322854651738101</v>
       </c>
       <c r="G14">
-        <v>2.248727944552097</v>
+        <v>1.528379580790358</v>
       </c>
       <c r="H14">
-        <v>0.2237602705487957</v>
+        <v>0.1520818155559601</v>
       </c>
       <c r="I14">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="J14">
-        <v>0.5360535976196448</v>
+        <v>0.3643363683881569</v>
       </c>
       <c r="K14">
-        <v>0.7099657982529692</v>
+        <v>0.4825382420039675</v>
       </c>
       <c r="L14">
-        <v>0.9051642982261795</v>
+        <v>0.6152076484044761</v>
       </c>
       <c r="M14">
-        <v>0.5695770698402021</v>
+        <v>0.3871210678637965</v>
       </c>
       <c r="N14">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O14">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P14">
-        <v>19.60344954098498</v>
+        <v>13.32376024591241</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.042124074186816</v>
+        <v>0.7082942867748431</v>
       </c>
       <c r="C15">
-        <v>4.687001446791336</v>
+        <v>3.185586466235504</v>
       </c>
       <c r="D15">
-        <v>0.003937914446902622</v>
+        <v>0.002676458949214559</v>
       </c>
       <c r="E15">
-        <v>0.3745658032863197</v>
+        <v>0.254578917290582</v>
       </c>
       <c r="F15">
-        <v>1.061637826100015</v>
+        <v>0.7215570827662366</v>
       </c>
       <c r="G15">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="H15">
-        <v>0.1398501690929973</v>
+        <v>0.09505113472247509</v>
       </c>
       <c r="I15">
-        <v>1.036515659895521</v>
+        <v>0.704482449107154</v>
       </c>
       <c r="J15">
-        <v>0.4288428780957158</v>
+        <v>0.2914690947105254</v>
       </c>
       <c r="K15">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="L15">
-        <v>1.267230017516651</v>
+        <v>0.8612907077662666</v>
       </c>
       <c r="M15">
-        <v>0.7974078977762828</v>
+        <v>0.5419694950093152</v>
       </c>
       <c r="N15">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O15">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P15">
-        <v>12.7027952646923</v>
+        <v>8.633633494238978</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.8387215440443293</v>
+        <v>0.5700488958621625</v>
       </c>
       <c r="C16">
-        <v>3.772189116212788</v>
+        <v>2.563821396922068</v>
       </c>
       <c r="D16">
-        <v>0.007547669356563357</v>
+        <v>0.005129879652661238</v>
       </c>
       <c r="E16">
-        <v>0.7179177896321129</v>
+        <v>0.4879429248069488</v>
       </c>
       <c r="F16">
-        <v>1.23857746378335</v>
+        <v>0.8418165965606095</v>
       </c>
       <c r="G16">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="H16">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I16">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J16">
-        <v>0.2358635829526437</v>
+        <v>0.160308002090789</v>
       </c>
       <c r="K16">
-        <v>0.3123849512313064</v>
+        <v>0.2123168264817457</v>
       </c>
       <c r="L16">
-        <v>1.448262877161888</v>
+        <v>0.9843322374471619</v>
       </c>
       <c r="M16">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="N16">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O16">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P16">
-        <v>11.33583680685833</v>
+        <v>7.704560949112468</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.5323621776568801</v>
+        <v>0.3618274428825704</v>
       </c>
       <c r="C17">
-        <v>2.394323630650032</v>
+        <v>1.627335736968498</v>
       </c>
       <c r="D17">
-        <v>0.01017294565449844</v>
+        <v>0.006914185618804277</v>
       </c>
       <c r="E17">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="F17">
-        <v>0.6192887318916752</v>
+        <v>0.4209082982803047</v>
       </c>
       <c r="G17">
-        <v>0.7155043459938493</v>
+        <v>0.486302593887841</v>
       </c>
       <c r="H17">
-        <v>0.01398501690929973</v>
+        <v>0.009505113472247506</v>
       </c>
       <c r="I17">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="J17">
-        <v>0.4931693098100731</v>
+        <v>0.3351894589171042</v>
       </c>
       <c r="K17">
-        <v>0.6531685343927315</v>
+        <v>0.4439351826436502</v>
       </c>
       <c r="L17">
-        <v>1.448262877161888</v>
+        <v>0.9843322374471619</v>
       </c>
       <c r="M17">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="P17">
-        <v>8.862840773011129</v>
+        <v>6.023754406611642</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,43 +1274,43 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.3641156403785262</v>
+        <v>0.247476317065909</v>
       </c>
       <c r="C18">
-        <v>1.637627011529503</v>
+        <v>1.113036235190718</v>
       </c>
       <c r="D18">
-        <v>0.008860307505530896</v>
+        <v>0.006022032635732758</v>
       </c>
       <c r="E18">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="F18">
-        <v>0.6192887318916752</v>
+        <v>0.4209082982803047</v>
       </c>
       <c r="G18">
-        <v>0.7155043459938493</v>
+        <v>0.486302593887841</v>
       </c>
       <c r="H18">
-        <v>0.01398501690929973</v>
+        <v>0.009505113472247506</v>
       </c>
       <c r="I18">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="J18">
-        <v>0.2573057268574295</v>
+        <v>0.1748814568263153</v>
       </c>
       <c r="K18">
-        <v>0.3407835831614252</v>
+        <v>0.2316183561619044</v>
       </c>
       <c r="L18">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M18">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="P18">
-        <v>8.14832599735705</v>
+        <v>5.538124388125699</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,43 +1318,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.3766713521157167</v>
+        <v>0.25600998317163</v>
       </c>
       <c r="C19">
-        <v>1.694096908478797</v>
+        <v>1.15141679502488</v>
       </c>
       <c r="D19">
-        <v>0.007547669356563357</v>
+        <v>0.005129879652661238</v>
       </c>
       <c r="E19">
-        <v>0.7179177896321129</v>
+        <v>0.4879429248069488</v>
       </c>
       <c r="F19">
-        <v>0.8846981884166788</v>
+        <v>0.6012975689718641</v>
       </c>
       <c r="G19">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="H19">
-        <v>0.06992508454649866</v>
+        <v>0.04752556736123754</v>
       </c>
       <c r="I19">
-        <v>0.5182578299477607</v>
+        <v>0.352241224553577</v>
       </c>
       <c r="J19">
-        <v>0.4502850220005017</v>
+        <v>0.3060425494460517</v>
       </c>
       <c r="K19">
-        <v>0.5963712705324939</v>
+        <v>0.4053321232833327</v>
       </c>
       <c r="L19">
-        <v>1.629295736807123</v>
+        <v>1.107373767128056</v>
       </c>
       <c r="M19">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="P19">
-        <v>8.992454643252108</v>
+        <v>6.111848296823418</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1362,43 +1362,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.6453635832915948</v>
+        <v>0.4386304378340593</v>
       </c>
       <c r="C20">
-        <v>2.90255270319367</v>
+        <v>1.972760775475963</v>
       </c>
       <c r="D20">
-        <v>0.00459423352138639</v>
+        <v>0.003122535440750319</v>
       </c>
       <c r="E20">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="F20">
-        <v>1.327047282625018</v>
+        <v>0.9019463534577958</v>
       </c>
       <c r="G20">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="H20">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I20">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J20">
-        <v>0.9005700440010034</v>
+        <v>0.6120850988921035</v>
       </c>
       <c r="K20">
-        <v>1.192742541064988</v>
+        <v>0.8106642465666654</v>
       </c>
       <c r="L20">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M20">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="P20">
-        <v>12.54042818186588</v>
+        <v>8.523278422347953</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.496640839073115</v>
+        <v>1.017212999801943</v>
       </c>
       <c r="C21">
-        <v>6.73121171635575</v>
+        <v>4.574962732232194</v>
       </c>
       <c r="D21">
-        <v>0.003937914446902622</v>
+        <v>0.002676458949214559</v>
       </c>
       <c r="E21">
-        <v>0.3745658032863197</v>
+        <v>0.254578917290582</v>
       </c>
       <c r="F21">
-        <v>3.096443659458376</v>
+        <v>2.104541491401523</v>
       </c>
       <c r="G21">
-        <v>3.577521729969245</v>
+        <v>2.431512969439205</v>
       </c>
       <c r="H21">
-        <v>0.5314306425533896</v>
+        <v>0.3611943119454053</v>
       </c>
       <c r="I21">
-        <v>3.938759507602981</v>
+        <v>2.677033306607186</v>
       </c>
       <c r="J21">
-        <v>1.543834361144576</v>
+        <v>1.049288740957892</v>
       </c>
       <c r="K21">
-        <v>2.044701498968551</v>
+        <v>1.389710136971426</v>
       </c>
       <c r="L21">
-        <v>5.249952929711842</v>
+        <v>3.56820436074596</v>
       </c>
       <c r="M21">
-        <v>3.303547005073173</v>
+        <v>2.24530219361002</v>
       </c>
       <c r="N21">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O21">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P21">
-        <v>31.96167766769899</v>
+        <v>21.72320383773423</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>2.664322030631838</v>
+        <v>1.810843947633996</v>
       </c>
       <c r="C22">
-        <v>11.98291213264002</v>
+        <v>8.144354796809322</v>
       </c>
       <c r="D22">
-        <v>0.0131263814896754</v>
+        <v>0.008921529830715196</v>
       </c>
       <c r="E22">
-        <v>1.248552677621066</v>
+        <v>0.8485963909686067</v>
       </c>
       <c r="F22">
-        <v>5.573598587025078</v>
+        <v>3.788174684522743</v>
       </c>
       <c r="G22">
-        <v>6.439539113944641</v>
+        <v>4.37672334499057</v>
       </c>
       <c r="H22">
-        <v>1.370531657111373</v>
+        <v>0.9315011202802554</v>
       </c>
       <c r="I22">
-        <v>10.15785346697611</v>
+        <v>6.903928001250111</v>
       </c>
       <c r="J22">
-        <v>2.573057268574295</v>
+        <v>1.748814568263153</v>
       </c>
       <c r="K22">
-        <v>3.407835831614251</v>
+        <v>2.316183561619045</v>
       </c>
       <c r="L22">
-        <v>8.146478684035621</v>
+        <v>5.536868835640286</v>
       </c>
       <c r="M22">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="N22">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O22">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P22">
-        <v>59.04965176049962</v>
+        <v>40.13392648149135</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>3.688868108386588</v>
+        <v>2.507191101860831</v>
       </c>
       <c r="C23">
-        <v>16.59085572370235</v>
+        <v>11.276208479277</v>
       </c>
       <c r="D23">
-        <v>0.006563190744837701</v>
+        <v>0.004460764915357598</v>
       </c>
       <c r="E23">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="F23">
-        <v>3.715732391350052</v>
+        <v>2.525449789681829</v>
       </c>
       <c r="G23">
-        <v>4.293026075963094</v>
+        <v>2.917815563327046</v>
       </c>
       <c r="H23">
-        <v>1.146771386562578</v>
+        <v>0.7794193047242957</v>
       </c>
       <c r="I23">
-        <v>8.499428411143276</v>
+        <v>5.776756082678662</v>
       </c>
       <c r="J23">
-        <v>3.044784434479582</v>
+        <v>2.069430572444731</v>
       </c>
       <c r="K23">
-        <v>4.032605734076864</v>
+        <v>2.740817214582536</v>
       </c>
       <c r="L23">
-        <v>7.422347245454676</v>
+        <v>5.044702716916703</v>
       </c>
       <c r="M23">
-        <v>4.670531972689656</v>
+        <v>3.174392756483132</v>
       </c>
       <c r="N23">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O23">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P23">
-        <v>58.42709161391178</v>
+        <v>39.71079472019319</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>4.316653695246115</v>
+        <v>2.933874407146879</v>
       </c>
       <c r="C24">
-        <v>19.41435057116702</v>
+        <v>13.19523647098514</v>
       </c>
       <c r="D24">
-        <v>0.007875828893805243</v>
+        <v>0.005352917898429118</v>
       </c>
       <c r="E24">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="F24">
-        <v>4.60043057976673</v>
+        <v>3.126747358653693</v>
       </c>
       <c r="G24">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="H24">
-        <v>0.5034606087347904</v>
+        <v>0.3421840850009102</v>
       </c>
       <c r="I24">
-        <v>3.731456375623877</v>
+        <v>2.536136816785755</v>
       </c>
       <c r="J24">
-        <v>3.237763729622654</v>
+        <v>2.200591665064468</v>
       </c>
       <c r="K24">
-        <v>4.288193421447933</v>
+        <v>2.914530981703964</v>
       </c>
       <c r="L24">
-        <v>10.31887299977845</v>
+        <v>7.013367191811027</v>
       </c>
       <c r="M24">
-        <v>6.493178596178304</v>
+        <v>4.413180173647281</v>
       </c>
       <c r="N24">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O24">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P24">
-        <v>63.52958363513906</v>
+        <v>43.17877520012751</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>3.485465578244102</v>
+        <v>2.36894571094815</v>
       </c>
       <c r="C25">
-        <v>15.6760433931238</v>
+        <v>10.65444340996356</v>
       </c>
       <c r="D25">
-        <v>0.01607981732485237</v>
+        <v>0.01092887404262612</v>
       </c>
       <c r="E25">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="F25">
-        <v>6.015947681233415</v>
+        <v>4.088823469008673</v>
       </c>
       <c r="G25">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="H25">
-        <v>0.3775954565510927</v>
+        <v>0.2566380637506827</v>
       </c>
       <c r="I25">
-        <v>2.798592281717908</v>
+        <v>1.902102612589316</v>
       </c>
       <c r="J25">
-        <v>4.138333773623658</v>
+        <v>2.812676763956572</v>
       </c>
       <c r="K25">
-        <v>5.480935962512922</v>
+        <v>3.725195228270629</v>
       </c>
       <c r="L25">
-        <v>12.12920159623081</v>
+        <v>8.243782488619981</v>
       </c>
       <c r="M25">
-        <v>7.632332735858708</v>
+        <v>5.187422309374874</v>
       </c>
       <c r="N25">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O25">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P25">
-        <v>66.50713919352354</v>
+        <v>45.20251272121305</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>3.568333275709559</v>
+        <v>2.425267907245909</v>
       </c>
       <c r="C26">
-        <v>16.04874471298914</v>
+        <v>10.90775510486904</v>
       </c>
       <c r="D26">
-        <v>0.01772061501106179</v>
+        <v>0.01204406527146552</v>
       </c>
       <c r="E26">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="F26">
-        <v>5.750538224708415</v>
+        <v>3.908434198317116</v>
       </c>
       <c r="G26">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="H26">
-        <v>0.2237602705487957</v>
+        <v>0.1520818155559601</v>
       </c>
       <c r="I26">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="J26">
-        <v>5.40342026400602</v>
+        <v>3.672510593352621</v>
       </c>
       <c r="K26">
-        <v>7.156455246389928</v>
+        <v>4.863985479399993</v>
       </c>
       <c r="L26">
-        <v>12.49126731552128</v>
+        <v>8.48986554798177</v>
       </c>
       <c r="M26">
-        <v>7.860163563794787</v>
+        <v>5.342270736520394</v>
       </c>
       <c r="N26">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O26">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P26">
-        <v>69.19964418693368</v>
+        <v>47.03251161595433</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>3.505554717023604</v>
+        <v>2.382599576717305</v>
       </c>
       <c r="C27">
-        <v>15.76639522824266</v>
+        <v>10.71585230569822</v>
       </c>
       <c r="D27">
-        <v>0.02133036992072253</v>
+        <v>0.01449748597491219</v>
       </c>
       <c r="E27">
-        <v>2.028898101134232</v>
+        <v>1.378969135323986</v>
       </c>
       <c r="F27">
-        <v>5.131249492816738</v>
+        <v>3.487525900036811</v>
       </c>
       <c r="G27">
-        <v>5.928464581091893</v>
+        <v>4.029364349356396</v>
       </c>
       <c r="H27">
-        <v>0.1818052198208965</v>
+        <v>0.1235664751392176</v>
       </c>
       <c r="I27">
-        <v>1.347470357864177</v>
+        <v>0.9158271838393002</v>
       </c>
       <c r="J27">
-        <v>4.48140807610023</v>
+        <v>3.045852039724991</v>
       </c>
       <c r="K27">
-        <v>5.935314073394821</v>
+        <v>4.034019703153168</v>
       </c>
       <c r="L27">
-        <v>11.5861030172951</v>
+        <v>7.874657899577295</v>
       </c>
       <c r="M27">
-        <v>7.290586493954586</v>
+        <v>4.955149668656596</v>
       </c>
       <c r="N27">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O27">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P27">
-        <v>63.82675026915259</v>
+        <v>43.38074868323329</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>3.57837784509931</v>
+        <v>2.432094840130486</v>
       </c>
       <c r="C28">
-        <v>16.09392063054857</v>
+        <v>10.93845955273637</v>
       </c>
       <c r="D28">
-        <v>0.01640797686209425</v>
+        <v>0.011151912288394</v>
       </c>
       <c r="E28">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="F28">
-        <v>4.511960760925062</v>
+        <v>3.066617601756506</v>
       </c>
       <c r="G28">
-        <v>5.212960235098041</v>
+        <v>3.543061755468556</v>
       </c>
       <c r="H28">
-        <v>0.2657153212766948</v>
+        <v>0.1805971559727026</v>
       </c>
       <c r="I28">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="J28">
-        <v>3.795259471147085</v>
+        <v>2.57950148818815</v>
       </c>
       <c r="K28">
-        <v>5.026557851631022</v>
+        <v>3.41637075338809</v>
       </c>
       <c r="L28">
-        <v>8.508544403326086</v>
+        <v>5.782951895002076</v>
       </c>
       <c r="M28">
-        <v>5.354024456497898</v>
+        <v>3.638938037919688</v>
       </c>
       <c r="N28">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O28">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P28">
-        <v>56.7924903339517</v>
+        <v>38.59981496602715</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>3.786802659936673</v>
+        <v>2.573753697485453</v>
       </c>
       <c r="C29">
-        <v>17.03132091990683</v>
+        <v>11.57557684598347</v>
       </c>
       <c r="D29">
-        <v>0.01476717917588483</v>
+        <v>0.0100367210595546</v>
       </c>
       <c r="E29">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="F29">
-        <v>6.546766594283422</v>
+        <v>4.449602010391792</v>
       </c>
       <c r="G29">
-        <v>7.563903086220692</v>
+        <v>5.140913135385746</v>
       </c>
       <c r="H29">
-        <v>0.3496254227324932</v>
+        <v>0.2376278368061876</v>
       </c>
       <c r="I29">
-        <v>2.591289149738803</v>
+        <v>1.761206122767884</v>
       </c>
       <c r="J29">
-        <v>4.331313068766729</v>
+        <v>2.943837856576307</v>
       </c>
       <c r="K29">
-        <v>5.736523649883988</v>
+        <v>3.898908995392059</v>
       </c>
       <c r="L29">
-        <v>8.327511543680847</v>
+        <v>5.65991036532118</v>
       </c>
       <c r="M29">
-        <v>5.240109042529858</v>
+        <v>3.561513824346929</v>
       </c>
       <c r="N29">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O29">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P29">
-        <v>63.82324485989192</v>
+        <v>43.37836618251802</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>3.324752468008059</v>
+        <v>2.259714784794921</v>
       </c>
       <c r="C30">
-        <v>14.95322871217285</v>
+        <v>10.16317224408628</v>
       </c>
       <c r="D30">
-        <v>0.01411086010140106</v>
+        <v>0.009590644568018839</v>
       </c>
       <c r="E30">
-        <v>1.342194128442646</v>
+        <v>0.9122411202912521</v>
       </c>
       <c r="F30">
-        <v>6.635236413125091</v>
+        <v>4.509731767288978</v>
       </c>
       <c r="G30">
-        <v>7.666117992791239</v>
+        <v>5.21038493451258</v>
       </c>
       <c r="H30">
-        <v>0.2237602705487957</v>
+        <v>0.1520818155559601</v>
       </c>
       <c r="I30">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="J30">
-        <v>3.945354478480585</v>
+        <v>2.681515671336833</v>
       </c>
       <c r="K30">
-        <v>5.225348275141852</v>
+        <v>3.551481461149201</v>
       </c>
       <c r="L30">
-        <v>4.88788721042137</v>
+        <v>3.32212130138417</v>
       </c>
       <c r="M30">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="N30">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O30">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P30">
-        <v>53.50517252264196</v>
+        <v>36.36554317225755</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>3.90984863496114</v>
+        <v>2.65738362532152</v>
       </c>
       <c r="C31">
-        <v>17.58472591000991</v>
+        <v>11.95170633235827</v>
       </c>
       <c r="D31">
-        <v>0.01082926472898221</v>
+        <v>0.007360262110340037</v>
       </c>
       <c r="E31">
-        <v>1.030055959037379</v>
+        <v>0.7000920225491005</v>
       </c>
       <c r="F31">
-        <v>4.777370217450065</v>
+        <v>3.247006872448066</v>
       </c>
       <c r="G31">
-        <v>5.519604954809692</v>
+        <v>3.751477152849059</v>
       </c>
       <c r="H31">
-        <v>0.209775253639496</v>
+        <v>0.1425767020837126</v>
       </c>
       <c r="I31">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="J31">
-        <v>3.859585902861441</v>
+        <v>2.623221852394729</v>
       </c>
       <c r="K31">
-        <v>5.111753747421377</v>
+        <v>3.474275342428566</v>
       </c>
       <c r="L31">
-        <v>7.603380105099912</v>
+        <v>5.167744246597596</v>
       </c>
       <c r="M31">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="N31">
-        <v>0.201113080221645</v>
+        <v>0.1366893340678607</v>
       </c>
       <c r="O31">
-        <v>0.8358378205998964</v>
+        <v>0.5680889326572781</v>
       </c>
       <c r="P31">
-        <v>56.99310172734191</v>
+        <v>38.73616332158272</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>4.467322236092401</v>
+        <v>3.036278400415531</v>
       </c>
       <c r="C32">
-        <v>20.09198933455852</v>
+        <v>13.65580318899508</v>
       </c>
       <c r="D32">
-        <v>0.01443901963864294</v>
+        <v>0.009813682813786716</v>
       </c>
       <c r="E32">
-        <v>1.373407945383172</v>
+        <v>0.9334560300654674</v>
       </c>
       <c r="F32">
-        <v>5.750538224708415</v>
+        <v>3.908434198317116</v>
       </c>
       <c r="G32">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="H32">
-        <v>0.4615055580068911</v>
+        <v>0.3136687445841678</v>
       </c>
       <c r="I32">
-        <v>3.42050167765522</v>
+        <v>2.324792082053608</v>
       </c>
       <c r="J32">
-        <v>3.730933039432727</v>
+        <v>2.535781123981571</v>
       </c>
       <c r="K32">
-        <v>4.941361955840663</v>
+        <v>3.358466164347614</v>
       </c>
       <c r="L32">
-        <v>6.15511722793802</v>
+        <v>4.183412009150436</v>
       </c>
       <c r="M32">
-        <v>3.873124074913375</v>
+        <v>2.632423261473816</v>
       </c>
       <c r="N32">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O32">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P32">
-        <v>61.54637976174671</v>
+        <v>41.83086278947751</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>4.899238719851756</v>
+        <v>3.329836514452334</v>
       </c>
       <c r="C33">
-        <v>22.0345537896142</v>
+        <v>14.97609444729029</v>
       </c>
       <c r="D33">
-        <v>0.01082926472898221</v>
+        <v>0.007360262110340037</v>
       </c>
       <c r="E33">
-        <v>1.030055959037379</v>
+        <v>0.7000920225491005</v>
       </c>
       <c r="F33">
-        <v>4.335021123241727</v>
+        <v>2.946358087962133</v>
       </c>
       <c r="G33">
-        <v>5.008530421956942</v>
+        <v>3.404118157214886</v>
       </c>
       <c r="H33">
-        <v>0.783160946920785</v>
+        <v>0.5322863544458604</v>
       </c>
       <c r="I33">
-        <v>5.804487695414919</v>
+        <v>3.945101715000062</v>
       </c>
       <c r="J33">
-        <v>3.044784434479582</v>
+        <v>2.069430572444731</v>
       </c>
       <c r="K33">
-        <v>4.032605734076864</v>
+        <v>2.740817214582536</v>
       </c>
       <c r="L33">
-        <v>3.07755861396901</v>
+        <v>2.091706004575218</v>
       </c>
       <c r="M33">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="N33">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O33">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P33">
-        <v>56.48129916113222</v>
+        <v>38.38830950783613</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,49 +2056,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>5.112685819383993</v>
+        <v>3.474908838249589</v>
       </c>
       <c r="C34">
-        <v>22.99454203775219</v>
+        <v>15.62856396447105</v>
       </c>
       <c r="D34">
-        <v>0.007547669356563357</v>
+        <v>0.005129879652661238</v>
       </c>
       <c r="E34">
-        <v>0.7179177896321129</v>
+        <v>0.4879429248069488</v>
       </c>
       <c r="F34">
-        <v>4.954309855133402</v>
+        <v>3.367266386242438</v>
       </c>
       <c r="G34">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="H34">
-        <v>1.006921217469581</v>
+        <v>0.6843681700018205</v>
       </c>
       <c r="I34">
-        <v>7.462912751247754</v>
+        <v>5.072273633571509</v>
       </c>
       <c r="J34">
-        <v>2.058445814859436</v>
+        <v>1.399051654610522</v>
       </c>
       <c r="K34">
-        <v>2.726268665291401</v>
+        <v>1.852946849295235</v>
       </c>
       <c r="L34">
-        <v>1.629295736807123</v>
+        <v>1.107373767128056</v>
       </c>
       <c r="M34">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="N34">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O34">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P34">
-        <v>55.76577115087056</v>
+        <v>37.90199083019578</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2106,49 +2106,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>3.585911272141626</v>
+        <v>2.437215039793916</v>
       </c>
       <c r="C35">
-        <v>16.12780256871814</v>
+        <v>10.96148788863687</v>
       </c>
       <c r="D35">
-        <v>0.006891350282079589</v>
+        <v>0.004683803161125477</v>
       </c>
       <c r="E35">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="F35">
-        <v>4.069611666716723</v>
+        <v>2.765968817270575</v>
       </c>
       <c r="G35">
-        <v>4.701885702245293</v>
+        <v>3.195702759834383</v>
       </c>
       <c r="H35">
-        <v>0.7551909131021853</v>
+        <v>0.5132761275013653</v>
       </c>
       <c r="I35">
-        <v>5.597184563435817</v>
+        <v>3.804205225178632</v>
       </c>
       <c r="J35">
-        <v>1.200760058668004</v>
+        <v>0.8161134651894714</v>
       </c>
       <c r="K35">
-        <v>1.590323388086651</v>
+        <v>1.080885662088887</v>
       </c>
       <c r="L35">
-        <v>2.715492894678539</v>
+        <v>1.845622945213428</v>
       </c>
       <c r="M35">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="N35">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O35">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P35">
-        <v>43.06092604362058</v>
+        <v>29.26696413162694</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2156,49 +2156,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>3.174083927161774</v>
+        <v>2.15731079152627</v>
       </c>
       <c r="C36">
-        <v>14.27558994878133</v>
+        <v>9.702605526076333</v>
       </c>
       <c r="D36">
-        <v>0.00459423352138639</v>
+        <v>0.003122535440750319</v>
       </c>
       <c r="E36">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="F36">
-        <v>2.742564384091704</v>
+        <v>1.864022463812779</v>
       </c>
       <c r="G36">
-        <v>3.168662103687046</v>
+        <v>2.153625772931867</v>
       </c>
       <c r="H36">
-        <v>0.8111309807393841</v>
+        <v>0.5512965813903553</v>
       </c>
       <c r="I36">
-        <v>6.011790827394027</v>
+        <v>4.085998204821492</v>
       </c>
       <c r="J36">
-        <v>0.9434543318105749</v>
+        <v>0.641232008363156</v>
       </c>
       <c r="K36">
-        <v>1.249539804925226</v>
+        <v>0.8492673059269829</v>
       </c>
       <c r="L36">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M36">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N36">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O36">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P36">
-        <v>37.43159023024908</v>
+        <v>25.44090685715189</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2206,49 +2206,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.538764913259931</v>
+        <v>1.725507286576787</v>
       </c>
       <c r="C37">
-        <v>11.41821316314709</v>
+        <v>7.760549198467694</v>
       </c>
       <c r="D37">
-        <v>0.00459423352138639</v>
+        <v>0.003122535440750319</v>
       </c>
       <c r="E37">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="F37">
-        <v>3.007973840616708</v>
+        <v>2.044411734504337</v>
       </c>
       <c r="G37">
-        <v>3.475306823398695</v>
+        <v>2.36204117031237</v>
       </c>
       <c r="H37">
-        <v>0.4475205410975914</v>
+        <v>0.3041636311119202</v>
       </c>
       <c r="I37">
-        <v>3.316850111665667</v>
+        <v>2.254343837142892</v>
       </c>
       <c r="J37">
-        <v>0.8362436122866457</v>
+        <v>0.5683647346855247</v>
       </c>
       <c r="K37">
-        <v>1.107546645274632</v>
+        <v>0.7527596575261893</v>
       </c>
       <c r="L37">
-        <v>1.629295736807123</v>
+        <v>1.107373767128056</v>
       </c>
       <c r="M37">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="N37">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O37">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P37">
-        <v>29.52106202417428</v>
+        <v>20.06440508301708</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2256,49 +2256,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.953668746306851</v>
+        <v>1.327838446050188</v>
       </c>
       <c r="C38">
-        <v>8.786715965310025</v>
+        <v>5.972015110195716</v>
       </c>
       <c r="D38">
-        <v>0.007875828893805243</v>
+        <v>0.005352917898429118</v>
       </c>
       <c r="E38">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="F38">
-        <v>1.769396376833358</v>
+        <v>1.202595137943728</v>
       </c>
       <c r="G38">
-        <v>2.044298131410997</v>
+        <v>1.389435982536688</v>
       </c>
       <c r="H38">
-        <v>0.2237602705487957</v>
+        <v>0.1520818155559601</v>
       </c>
       <c r="I38">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="J38">
-        <v>0.621822173238788</v>
+        <v>0.4226301873302621</v>
       </c>
       <c r="K38">
-        <v>0.8235603259734442</v>
+        <v>0.5597443607246023</v>
       </c>
       <c r="L38">
-        <v>1.629295736807123</v>
+        <v>1.107373767128056</v>
       </c>
       <c r="M38">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="N38">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O38">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P38">
-        <v>21.43144906355056</v>
+        <v>14.56618583623442</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,49 +2306,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.220415180854923</v>
+        <v>0.8294723454760814</v>
       </c>
       <c r="C39">
-        <v>5.488873983471302</v>
+        <v>3.730590415880614</v>
       </c>
       <c r="D39">
-        <v>0.006235031207595817</v>
+        <v>0.004237726669589718</v>
       </c>
       <c r="E39">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="F39">
-        <v>1.23857746378335</v>
+        <v>0.8418165965606095</v>
       </c>
       <c r="G39">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="H39">
-        <v>0.09789511836509812</v>
+        <v>0.06653579430573255</v>
       </c>
       <c r="I39">
-        <v>0.7255609619268649</v>
+        <v>0.4931377143750078</v>
       </c>
       <c r="J39">
-        <v>0.3216321585717869</v>
+        <v>0.2186018210328941</v>
       </c>
       <c r="K39">
-        <v>0.4259794789517813</v>
+        <v>0.2895229452023806</v>
       </c>
       <c r="L39">
-        <v>1.086197157871415</v>
+        <v>0.7382491780853713</v>
       </c>
       <c r="M39">
-        <v>0.6834924838082423</v>
+        <v>0.4645452814365559</v>
       </c>
       <c r="N39">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O39">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P39">
-        <v>13.38806029272483</v>
+        <v>9.099383510292281</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2356,49 +2356,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.9266115262046634</v>
+        <v>0.6297845586022097</v>
       </c>
       <c r="C40">
-        <v>4.167478394857841</v>
+        <v>2.832485315761207</v>
       </c>
       <c r="D40">
-        <v>0.01345454102691729</v>
+        <v>0.009144568076483076</v>
       </c>
       <c r="E40">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="F40">
-        <v>0.9731680072583468</v>
+        <v>0.6614273258690504</v>
       </c>
       <c r="G40">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="H40">
-        <v>0.05594006763719893</v>
+        <v>0.03802045388899002</v>
       </c>
       <c r="I40">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="J40">
-        <v>0.300190014667001</v>
+        <v>0.2040283662973678</v>
       </c>
       <c r="K40">
-        <v>0.3975808470216627</v>
+        <v>0.2702214155222218</v>
       </c>
       <c r="L40">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M40">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="N40">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O40">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P40">
-        <v>13.03585125932506</v>
+        <v>8.859999686151944</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2406,49 +2406,49 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.6629415797236616</v>
+        <v>0.4505775703820688</v>
       </c>
       <c r="C41">
-        <v>2.981610558922682</v>
+        <v>2.026493559243791</v>
       </c>
       <c r="D41">
-        <v>0.01017294565449844</v>
+        <v>0.006914185618804277</v>
       </c>
       <c r="E41">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="F41">
-        <v>0.6192887318916752</v>
+        <v>0.4209082982803047</v>
       </c>
       <c r="G41">
-        <v>0.7155043459938493</v>
+        <v>0.486302593887841</v>
       </c>
       <c r="H41">
-        <v>0.01398501690929973</v>
+        <v>0.009505113472247506</v>
       </c>
       <c r="I41">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="J41">
-        <v>0.5360535976196448</v>
+        <v>0.3643363683881569</v>
       </c>
       <c r="K41">
-        <v>0.7099657982529692</v>
+        <v>0.4825382420039675</v>
       </c>
       <c r="L41">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M41">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="N41">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O41">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P41">
-        <v>10.63436353591497</v>
+        <v>7.227794772760444</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2456,43 +2456,43 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.4896727577504319</v>
+        <v>0.332812978123119</v>
       </c>
       <c r="C42">
-        <v>2.202325981022435</v>
+        <v>1.496841833532346</v>
       </c>
       <c r="D42">
-        <v>0.005906871670353931</v>
+        <v>0.004014688423821838</v>
       </c>
       <c r="E42">
-        <v>0.5618487049294794</v>
+        <v>0.381868375935873</v>
       </c>
       <c r="F42">
-        <v>0.9731680072583468</v>
+        <v>0.6614273258690504</v>
       </c>
       <c r="G42">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="H42">
-        <v>0.02797003381859946</v>
+        <v>0.01901022694449501</v>
       </c>
       <c r="I42">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="J42">
-        <v>0.2787478707622152</v>
+        <v>0.1894549115618416</v>
       </c>
       <c r="K42">
-        <v>0.3691822150915439</v>
+        <v>0.2509198858420632</v>
       </c>
       <c r="L42">
-        <v>1.810328596452359</v>
+        <v>1.230415296808952</v>
       </c>
       <c r="M42">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="P42">
-        <v>9.189972282691322</v>
+        <v>6.246093938985765</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2500,49 +2500,49 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.3842047791580309</v>
+        <v>0.2611301828350625</v>
       </c>
       <c r="C43">
-        <v>1.727978846648373</v>
+        <v>1.174445130925378</v>
       </c>
       <c r="D43">
-        <v>0.005250552595870163</v>
+        <v>0.003568611932286078</v>
       </c>
       <c r="E43">
-        <v>0.4994210710484263</v>
+        <v>0.3394385563874427</v>
       </c>
       <c r="F43">
-        <v>0.9731680072583468</v>
+        <v>0.6614273258690504</v>
       </c>
       <c r="G43">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="H43">
-        <v>0.02797003381859946</v>
+        <v>0.01901022694449501</v>
       </c>
       <c r="I43">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="J43">
-        <v>0.3430743024765726</v>
+        <v>0.2331752757684204</v>
       </c>
       <c r="K43">
-        <v>0.4543781108819002</v>
+        <v>0.3088244748825393</v>
       </c>
       <c r="L43">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M43">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N43">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O43">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P43">
-        <v>9.94551869878191</v>
+        <v>6.759611689094124</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.6328078715544045</v>
+        <v>0.4300967717283384</v>
       </c>
       <c r="C44">
-        <v>2.84608280624438</v>
+        <v>1.934380215641799</v>
       </c>
       <c r="D44">
-        <v>0.004266073984144505</v>
+        <v>0.002899497194982439</v>
       </c>
       <c r="E44">
-        <v>0.4057796202268465</v>
+        <v>0.2757938270647972</v>
       </c>
       <c r="F44">
-        <v>1.061637826100015</v>
+        <v>0.7215570827662366</v>
       </c>
       <c r="G44">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="H44">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I44">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J44">
-        <v>0.9434543318105749</v>
+        <v>0.641232008363156</v>
       </c>
       <c r="K44">
-        <v>1.249539804925226</v>
+        <v>0.8492673059269829</v>
       </c>
       <c r="L44">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M44">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="P44">
-        <v>12.85233279297461</v>
+        <v>8.735268778908356</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.504174266115429</v>
+        <v>1.022333199465376</v>
       </c>
       <c r="C45">
-        <v>6.765093654525325</v>
+        <v>4.59799106813269</v>
       </c>
       <c r="D45">
-        <v>0.003609754909660736</v>
+        <v>0.002453420703446679</v>
       </c>
       <c r="E45">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="F45">
-        <v>1.68092655799169</v>
+        <v>1.142465381046542</v>
       </c>
       <c r="G45">
-        <v>1.942083224840448</v>
+        <v>1.319964183409854</v>
       </c>
       <c r="H45">
-        <v>0.4475205410975914</v>
+        <v>0.3041636311119202</v>
       </c>
       <c r="I45">
-        <v>3.316850111665667</v>
+        <v>2.254343837142892</v>
       </c>
       <c r="J45">
-        <v>2.058445814859436</v>
+        <v>1.399051654610522</v>
       </c>
       <c r="K45">
-        <v>2.726268665291401</v>
+        <v>1.852946849295235</v>
       </c>
       <c r="L45">
-        <v>5.430985789357079</v>
+        <v>3.691245890426856</v>
       </c>
       <c r="M45">
-        <v>3.417462419041212</v>
+        <v>2.32272640718278</v>
       </c>
       <c r="N45">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O45">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P45">
-        <v>29.77503290615027</v>
+        <v>20.23701996560784</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>2.749700870444733</v>
+        <v>1.8688728771529</v>
       </c>
       <c r="C46">
-        <v>12.36690743189521</v>
+        <v>8.405342603681632</v>
       </c>
       <c r="D46">
-        <v>0.003609754909660736</v>
+        <v>0.002453420703446679</v>
       </c>
       <c r="E46">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="F46">
-        <v>3.627262572508384</v>
+        <v>2.465320032784642</v>
       </c>
       <c r="G46">
-        <v>4.190811169392544</v>
+        <v>2.848343764200211</v>
       </c>
       <c r="H46">
-        <v>1.370531657111373</v>
+        <v>0.9315011202802554</v>
       </c>
       <c r="I46">
-        <v>10.15785346697611</v>
+        <v>6.903928001250111</v>
       </c>
       <c r="J46">
-        <v>2.615941556383866</v>
+        <v>1.777961477734206</v>
       </c>
       <c r="K46">
-        <v>3.464633095474489</v>
+        <v>2.354786620979362</v>
       </c>
       <c r="L46">
-        <v>10.68093871906891</v>
+        <v>7.259450251172818</v>
       </c>
       <c r="M46">
-        <v>6.721009424114385</v>
+        <v>4.5680286007928</v>
       </c>
       <c r="N46">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O46">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P46">
-        <v>58.56907194484454</v>
+        <v>39.80729364937546</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>3.754157809419978</v>
+        <v>2.551566165610578</v>
       </c>
       <c r="C47">
-        <v>16.88449918783868</v>
+        <v>11.47578739041465</v>
       </c>
       <c r="D47">
-        <v>0.005578712133112046</v>
+        <v>0.003791650178053958</v>
       </c>
       <c r="E47">
-        <v>0.5306348879889531</v>
+        <v>0.3606534661616579</v>
       </c>
       <c r="F47">
-        <v>4.60043057976673</v>
+        <v>3.126747358653693</v>
       </c>
       <c r="G47">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="H47">
-        <v>1.090831318925378</v>
+        <v>0.7413988508353054</v>
       </c>
       <c r="I47">
-        <v>8.084822147185069</v>
+        <v>5.4949631030358</v>
       </c>
       <c r="J47">
-        <v>2.723152275907795</v>
+        <v>1.850828751411837</v>
       </c>
       <c r="K47">
-        <v>3.606626255125083</v>
+        <v>2.451294269380155</v>
       </c>
       <c r="L47">
-        <v>8.689577262971321</v>
+        <v>5.90599342468297</v>
       </c>
       <c r="M47">
-        <v>5.467939870465939</v>
+        <v>3.716362251492447</v>
       </c>
       <c r="N47">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O47">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P47">
-        <v>61.23733586978002</v>
+        <v>41.62081676092428</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>4.143384873272885</v>
+        <v>2.81610981488793</v>
       </c>
       <c r="C48">
-        <v>18.63506599326676</v>
+        <v>12.66558474527368</v>
       </c>
       <c r="D48">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196998</v>
       </c>
       <c r="E48">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="F48">
-        <v>5.308189130500073</v>
+        <v>3.607785413831183</v>
       </c>
       <c r="G48">
-        <v>6.132894394232991</v>
+        <v>4.168307947610066</v>
       </c>
       <c r="H48">
-        <v>0.5594006763719893</v>
+        <v>0.3802045388899004</v>
       </c>
       <c r="I48">
-        <v>4.146062639582086</v>
+        <v>2.817929796428616</v>
       </c>
       <c r="J48">
-        <v>3.36641659305137</v>
+        <v>2.288032393477626</v>
       </c>
       <c r="K48">
-        <v>4.458585213028645</v>
+        <v>3.030340159784916</v>
       </c>
       <c r="L48">
-        <v>9.051642982261798</v>
+        <v>6.152076484044759</v>
       </c>
       <c r="M48">
-        <v>5.69577069840202</v>
+        <v>3.871210678637965</v>
       </c>
       <c r="N48">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O48">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P48">
-        <v>62.90813314640776</v>
+        <v>42.75639763340129</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>3.485465578244102</v>
+        <v>2.36894571094815</v>
       </c>
       <c r="C49">
-        <v>15.6760433931238</v>
+        <v>10.65444340996356</v>
       </c>
       <c r="D49">
-        <v>0.01607981732485237</v>
+        <v>0.01092887404262612</v>
       </c>
       <c r="E49">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="F49">
-        <v>6.015947681233415</v>
+        <v>4.088823469008673</v>
       </c>
       <c r="G49">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="H49">
-        <v>0.3775954565510927</v>
+        <v>0.2566380637506827</v>
       </c>
       <c r="I49">
-        <v>2.798592281717908</v>
+        <v>1.902102612589316</v>
       </c>
       <c r="J49">
-        <v>4.138333773623658</v>
+        <v>2.812676763956572</v>
       </c>
       <c r="K49">
-        <v>5.480935962512922</v>
+        <v>3.725195228270629</v>
       </c>
       <c r="L49">
-        <v>12.12920159623081</v>
+        <v>8.243782488619981</v>
       </c>
       <c r="M49">
-        <v>7.632332735858708</v>
+        <v>5.187422309374874</v>
       </c>
       <c r="N49">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O49">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P49">
-        <v>66.50713919352354</v>
+        <v>45.20251272121305</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.358705311621285</v>
+        <v>3.47039872415947</v>
       </c>
       <c r="C2">
-        <v>10.60838673816257</v>
+        <v>15.60827951678464</v>
       </c>
       <c r="D2">
-        <v>0.01449748597491219</v>
+        <v>0.02133036992072253</v>
       </c>
       <c r="E2">
-        <v>1.378969135323986</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="F2">
-        <v>4.329342496597421</v>
+        <v>6.36982695660009</v>
       </c>
       <c r="G2">
-        <v>5.00196953713208</v>
+        <v>7.35947327307959</v>
       </c>
       <c r="H2">
-        <v>0.1520818155559601</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I2">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J2">
-        <v>3.439335317584201</v>
+        <v>5.060345961529447</v>
       </c>
       <c r="K2">
-        <v>4.555161004517454</v>
+        <v>6.702077135508029</v>
       </c>
       <c r="L2">
-        <v>7.136408721491921</v>
+        <v>10.49990585942368</v>
       </c>
       <c r="M2">
-        <v>4.49060438722004</v>
+        <v>6.607094010146345</v>
       </c>
       <c r="N2">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O2">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P2">
-        <v>44.96851561200668</v>
+        <v>66.16285571510603</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.452575638784214</v>
+        <v>3.608511553268567</v>
       </c>
       <c r="C3">
-        <v>11.03057289633836</v>
+        <v>16.22944838322687</v>
       </c>
       <c r="D3">
-        <v>0.01271318000876916</v>
+        <v>0.01870509362278745</v>
       </c>
       <c r="E3">
-        <v>1.209249857130265</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="F3">
-        <v>3.968563955214302</v>
+        <v>5.839008043550085</v>
       </c>
       <c r="G3">
-        <v>4.585138742371072</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="H3">
-        <v>0.1520818155559601</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I3">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J3">
-        <v>2.696089126072361</v>
+        <v>3.966796622385372</v>
       </c>
       <c r="K3">
-        <v>3.570782990829359</v>
+        <v>5.253746907071971</v>
       </c>
       <c r="L3">
-        <v>6.152076484044759</v>
+        <v>9.051642982261798</v>
       </c>
       <c r="M3">
-        <v>3.871210678637965</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="N3">
-        <v>0.1002388449830978</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O3">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P3">
-        <v>41.34506467915727</v>
+        <v>60.83161767003987</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.585700830033462</v>
+        <v>3.80438065636874</v>
       </c>
       <c r="C4">
-        <v>11.6293096297513</v>
+        <v>17.11037877563584</v>
       </c>
       <c r="D4">
-        <v>0.01360533299184067</v>
+        <v>0.02001773177175499</v>
       </c>
       <c r="E4">
-        <v>1.294109496227125</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="F4">
-        <v>3.908434198317116</v>
+        <v>5.750538224708415</v>
       </c>
       <c r="G4">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H4">
-        <v>0.1425767020837126</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I4">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J4">
-        <v>3.045852039724991</v>
+        <v>4.48140807610023</v>
       </c>
       <c r="K4">
-        <v>4.034019703153168</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="L4">
-        <v>5.536868835640286</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M4">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N4">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O4">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P4">
-        <v>41.7168091734189</v>
+        <v>61.37857095506558</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.57204696426431</v>
+        <v>3.784291517589236</v>
       </c>
       <c r="C5">
-        <v>11.56790073401664</v>
+        <v>17.02002694051697</v>
       </c>
       <c r="D5">
-        <v>0.0100367210595546</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E5">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F5">
-        <v>3.607785413831183</v>
+        <v>5.308189130500073</v>
       </c>
       <c r="G5">
-        <v>4.168307947610066</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="H5">
-        <v>0.1425767020837126</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I5">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J5">
-        <v>3.074998949196043</v>
+        <v>4.524292363909802</v>
       </c>
       <c r="K5">
-        <v>4.072622762513486</v>
+        <v>5.99211133725506</v>
       </c>
       <c r="L5">
-        <v>4.183412009150436</v>
+        <v>6.15511722793802</v>
       </c>
       <c r="M5">
-        <v>2.632423261473816</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="N5">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O5">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P5">
-        <v>38.41938782095307</v>
+        <v>56.52702515227605</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.659090358542663</v>
+        <v>3.912359777308579</v>
       </c>
       <c r="C6">
-        <v>11.95938244432509</v>
+        <v>17.59601988939978</v>
       </c>
       <c r="D6">
-        <v>0.01204406527146552</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E6">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F6">
-        <v>4.269212739700236</v>
+        <v>6.281357137758419</v>
       </c>
       <c r="G6">
-        <v>4.932497738005243</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="H6">
-        <v>0.1805971559727026</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I6">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J6">
-        <v>2.637795307130256</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K6">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L6">
-        <v>4.429495068512225</v>
+        <v>6.517182947228493</v>
       </c>
       <c r="M6">
-        <v>2.787271688619335</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="N6">
-        <v>0.0546757336271443</v>
+        <v>0.08044523208865802</v>
       </c>
       <c r="O6">
-        <v>0.2272355730629113</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="P6">
-        <v>40.12699652598922</v>
+        <v>59.03945561237779</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.713705821619277</v>
+        <v>3.992716332426599</v>
       </c>
       <c r="C7">
-        <v>12.20501802726374</v>
+        <v>17.95742722987526</v>
       </c>
       <c r="D7">
-        <v>0.01048279755109036</v>
+        <v>0.0154234982503686</v>
       </c>
       <c r="E7">
-        <v>0.9971007593881129</v>
+        <v>1.467049396204752</v>
       </c>
       <c r="F7">
-        <v>4.449602010391792</v>
+        <v>6.546766594283422</v>
       </c>
       <c r="G7">
-        <v>5.140913135385746</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="H7">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I7">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J7">
-        <v>2.317179302948678</v>
+        <v>3.40930088086094</v>
       </c>
       <c r="K7">
-        <v>3.068943219145233</v>
+        <v>4.515382476888883</v>
       </c>
       <c r="L7">
-        <v>3.56820436074596</v>
+        <v>5.249952929711842</v>
       </c>
       <c r="M7">
-        <v>2.24530219361002</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="N7">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O7">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P7">
-        <v>38.76641991010477</v>
+        <v>57.03761870268726</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>2.973129271233198</v>
+        <v>4.374409969237192</v>
       </c>
       <c r="C8">
-        <v>13.37178704622228</v>
+        <v>19.67411209713375</v>
       </c>
       <c r="D8">
-        <v>0.01159798877992975</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E8">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F8">
-        <v>4.209082982803046</v>
+        <v>6.192887318916751</v>
       </c>
       <c r="G8">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H8">
-        <v>0.3231738580564152</v>
+        <v>0.4754905749161908</v>
       </c>
       <c r="I8">
-        <v>2.395240326964322</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="J8">
-        <v>2.521207669246046</v>
+        <v>3.709490895527943</v>
       </c>
       <c r="K8">
-        <v>3.339164634667456</v>
+        <v>4.912963323910546</v>
       </c>
       <c r="L8">
-        <v>2.337789063937009</v>
+        <v>3.439624333259483</v>
       </c>
       <c r="M8">
-        <v>1.471060057882427</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="N8">
-        <v>0.1002388449830978</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O8">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P8">
-        <v>39.43627154252815</v>
+        <v>58.02318151932431</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.280341251039152</v>
+        <v>4.826415591776051</v>
       </c>
       <c r="C9">
-        <v>14.75348720025214</v>
+        <v>21.70702838730831</v>
       </c>
       <c r="D9">
-        <v>0.009813682813786716</v>
+        <v>0.01443901963864294</v>
       </c>
       <c r="E9">
-        <v>0.9334560300654674</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="F9">
-        <v>4.028693712111488</v>
+        <v>5.927477862391749</v>
       </c>
       <c r="G9">
-        <v>4.654610541497908</v>
+        <v>6.84839874022684</v>
       </c>
       <c r="H9">
-        <v>0.5893170352793455</v>
+        <v>0.8670710483765831</v>
       </c>
       <c r="I9">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J9">
-        <v>2.360899667155257</v>
+        <v>3.473627312575298</v>
       </c>
       <c r="K9">
-        <v>3.12684780818571</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="L9">
-        <v>2.337789063937009</v>
+        <v>3.439624333259483</v>
       </c>
       <c r="M9">
-        <v>1.471060057882427</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="N9">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O9">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P9">
-        <v>42.24300375915578</v>
+        <v>62.15276899074374</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.152336259453334</v>
+        <v>4.638079915718191</v>
       </c>
       <c r="C10">
-        <v>14.1777788027397</v>
+        <v>20.85997993306891</v>
       </c>
       <c r="D10">
-        <v>0.011151912288394</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E10">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F10">
-        <v>4.990769822466471</v>
+        <v>7.342994963858433</v>
       </c>
       <c r="G10">
-        <v>5.766159327527258</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="H10">
-        <v>0.7128835104185631</v>
+        <v>1.04887626819748</v>
       </c>
       <c r="I10">
-        <v>5.283618368303653</v>
+        <v>7.77386744921641</v>
       </c>
       <c r="J10">
-        <v>1.267890561990786</v>
+        <v>1.865466519716364</v>
       </c>
       <c r="K10">
-        <v>1.679233082173807</v>
+        <v>2.470680977920332</v>
       </c>
       <c r="L10">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M10">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N10">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O10">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P10">
-        <v>41.05004319496891</v>
+        <v>60.39754810769035</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.28019558344865</v>
+        <v>3.354886176177317</v>
       </c>
       <c r="C11">
-        <v>10.25528558768827</v>
+        <v>15.08875646485115</v>
       </c>
       <c r="D11">
-        <v>0.009144568076483076</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E11">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F11">
-        <v>3.547655656933998</v>
+        <v>5.219719311658408</v>
       </c>
       <c r="G11">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H11">
-        <v>0.5703068083348505</v>
+        <v>0.8391010145579838</v>
       </c>
       <c r="I11">
-        <v>4.226894694642924</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="J11">
-        <v>0.6558054630986823</v>
+        <v>0.9648964757153602</v>
       </c>
       <c r="K11">
-        <v>0.8685688356071416</v>
+        <v>1.277938436855344</v>
       </c>
       <c r="L11">
-        <v>1.476498356170743</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M11">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N11">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O11">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P11">
-        <v>29.92904921944593</v>
+        <v>44.03506182596326</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.906421008018071</v>
+        <v>2.804946002088371</v>
       </c>
       <c r="C12">
-        <v>8.574217066951942</v>
+        <v>12.6153749784721</v>
       </c>
       <c r="D12">
-        <v>0.0100367210595546</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E12">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F12">
-        <v>3.126747358653693</v>
+        <v>4.60043057976673</v>
       </c>
       <c r="G12">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H12">
-        <v>0.4467403331956329</v>
+        <v>0.6572957947370871</v>
       </c>
       <c r="I12">
-        <v>3.311067510803624</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="J12">
-        <v>0.5829381894210508</v>
+        <v>0.8576857561914316</v>
       </c>
       <c r="K12">
-        <v>0.7720611872063481</v>
+        <v>1.135945277204751</v>
       </c>
       <c r="L12">
-        <v>1.845622945213428</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M12">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="N12">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O12">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P12">
-        <v>26.49236088967652</v>
+        <v>38.97861041755582</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.573608029894952</v>
+        <v>2.31527324433794</v>
       </c>
       <c r="C13">
-        <v>7.077375233419597</v>
+        <v>10.41304899744967</v>
       </c>
       <c r="D13">
-        <v>0.006691147373036397</v>
+        <v>0.009844786117256553</v>
       </c>
       <c r="E13">
-        <v>0.6364472932264552</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="F13">
-        <v>2.525449789681829</v>
+        <v>3.715732391350052</v>
       </c>
       <c r="G13">
-        <v>2.917815563327046</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="H13">
-        <v>0.3326789715286627</v>
+        <v>0.4894755918254906</v>
       </c>
       <c r="I13">
-        <v>2.465688571875039</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="J13">
-        <v>0.2914690947105254</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K13">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L13">
-        <v>0.8612907077662666</v>
+        <v>1.267230017516651</v>
       </c>
       <c r="M13">
-        <v>0.5419694950093152</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="N13">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O13">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P13">
-        <v>19.71048492697925</v>
+        <v>29.00033395699419</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.204953654127805</v>
+        <v>1.772866497291308</v>
       </c>
       <c r="C14">
-        <v>5.419335048583776</v>
+        <v>7.973549449240199</v>
       </c>
       <c r="D14">
-        <v>0.006022032635732758</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E14">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F14">
-        <v>1.322854651738101</v>
+        <v>1.946336014516694</v>
       </c>
       <c r="G14">
-        <v>1.528379580790358</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="H14">
-        <v>0.1520818155559601</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I14">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J14">
-        <v>0.3643363683881569</v>
+        <v>0.5360535976196448</v>
       </c>
       <c r="K14">
-        <v>0.4825382420039675</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="L14">
-        <v>0.6152076484044761</v>
+        <v>0.9051642982261795</v>
       </c>
       <c r="M14">
-        <v>0.3871210678637965</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="N14">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O14">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P14">
-        <v>13.32376024591241</v>
+        <v>19.60344954098498</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.7082942867748431</v>
+        <v>1.042124074186816</v>
       </c>
       <c r="C15">
-        <v>3.185586466235504</v>
+        <v>4.687001446791336</v>
       </c>
       <c r="D15">
-        <v>0.002676458949214559</v>
+        <v>0.003937914446902622</v>
       </c>
       <c r="E15">
-        <v>0.254578917290582</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="F15">
-        <v>0.7215570827662366</v>
+        <v>1.061637826100015</v>
       </c>
       <c r="G15">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H15">
-        <v>0.09505113472247509</v>
+        <v>0.1398501690929973</v>
       </c>
       <c r="I15">
-        <v>0.704482449107154</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="J15">
-        <v>0.2914690947105254</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K15">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L15">
-        <v>0.8612907077662666</v>
+        <v>1.267230017516651</v>
       </c>
       <c r="M15">
-        <v>0.5419694950093152</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="N15">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O15">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P15">
-        <v>8.633633494238978</v>
+        <v>12.7027952646923</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.5700488958621625</v>
+        <v>0.8387215440443293</v>
       </c>
       <c r="C16">
-        <v>2.563821396922068</v>
+        <v>3.772189116212788</v>
       </c>
       <c r="D16">
-        <v>0.005129879652661238</v>
+        <v>0.007547669356563357</v>
       </c>
       <c r="E16">
-        <v>0.4879429248069488</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="F16">
-        <v>0.8418165965606095</v>
+        <v>1.23857746378335</v>
       </c>
       <c r="G16">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H16">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I16">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J16">
-        <v>0.160308002090789</v>
+        <v>0.2358635829526437</v>
       </c>
       <c r="K16">
-        <v>0.2123168264817457</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="L16">
-        <v>0.9843322374471619</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M16">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="N16">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O16">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P16">
-        <v>7.704560949112468</v>
+        <v>11.33583680685833</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3618274428825704</v>
+        <v>0.5323621776568801</v>
       </c>
       <c r="C17">
-        <v>1.627335736968498</v>
+        <v>2.394323630650032</v>
       </c>
       <c r="D17">
-        <v>0.006914185618804277</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E17">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F17">
-        <v>0.4209082982803047</v>
+        <v>0.6192887318916752</v>
       </c>
       <c r="G17">
-        <v>0.486302593887841</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="H17">
-        <v>0.009505113472247506</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I17">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J17">
-        <v>0.3351894589171042</v>
+        <v>0.4931693098100731</v>
       </c>
       <c r="K17">
-        <v>0.4439351826436502</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="L17">
-        <v>0.9843322374471619</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M17">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="P17">
-        <v>6.023754406611642</v>
+        <v>8.862840773011129</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,43 +1274,43 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.247476317065909</v>
+        <v>0.3641156403785262</v>
       </c>
       <c r="C18">
-        <v>1.113036235190718</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="D18">
-        <v>0.006022032635732758</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E18">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F18">
-        <v>0.4209082982803047</v>
+        <v>0.6192887318916752</v>
       </c>
       <c r="G18">
-        <v>0.486302593887841</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="H18">
-        <v>0.009505113472247506</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I18">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J18">
-        <v>0.1748814568263153</v>
+        <v>0.2573057268574295</v>
       </c>
       <c r="K18">
-        <v>0.2316183561619044</v>
+        <v>0.3407835831614252</v>
       </c>
       <c r="L18">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M18">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P18">
-        <v>5.538124388125699</v>
+        <v>8.14832599735705</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,43 +1318,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.25600998317163</v>
+        <v>0.3766713521157167</v>
       </c>
       <c r="C19">
-        <v>1.15141679502488</v>
+        <v>1.694096908478797</v>
       </c>
       <c r="D19">
-        <v>0.005129879652661238</v>
+        <v>0.007547669356563357</v>
       </c>
       <c r="E19">
-        <v>0.4879429248069488</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="F19">
-        <v>0.6012975689718641</v>
+        <v>0.8846981884166788</v>
       </c>
       <c r="G19">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H19">
-        <v>0.04752556736123754</v>
+        <v>0.06992508454649866</v>
       </c>
       <c r="I19">
-        <v>0.352241224553577</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="J19">
-        <v>0.3060425494460517</v>
+        <v>0.4502850220005017</v>
       </c>
       <c r="K19">
-        <v>0.4053321232833327</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="L19">
-        <v>1.107373767128056</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M19">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="P19">
-        <v>6.111848296823418</v>
+        <v>8.992454643252108</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1362,43 +1362,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4386304378340593</v>
+        <v>0.6453635832915948</v>
       </c>
       <c r="C20">
-        <v>1.972760775475963</v>
+        <v>2.90255270319367</v>
       </c>
       <c r="D20">
-        <v>0.003122535440750319</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E20">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F20">
-        <v>0.9019463534577958</v>
+        <v>1.327047282625018</v>
       </c>
       <c r="G20">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H20">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I20">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J20">
-        <v>0.6120850988921035</v>
+        <v>0.9005700440010034</v>
       </c>
       <c r="K20">
-        <v>0.8106642465666654</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="L20">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M20">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P20">
-        <v>8.523278422347953</v>
+        <v>12.54042818186588</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.017212999801943</v>
+        <v>1.496640839073115</v>
       </c>
       <c r="C21">
-        <v>4.574962732232194</v>
+        <v>6.73121171635575</v>
       </c>
       <c r="D21">
-        <v>0.002676458949214559</v>
+        <v>0.003937914446902622</v>
       </c>
       <c r="E21">
-        <v>0.254578917290582</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="F21">
-        <v>2.104541491401523</v>
+        <v>3.096443659458376</v>
       </c>
       <c r="G21">
-        <v>2.431512969439205</v>
+        <v>3.577521729969245</v>
       </c>
       <c r="H21">
-        <v>0.3611943119454053</v>
+        <v>0.5314306425533896</v>
       </c>
       <c r="I21">
-        <v>2.677033306607186</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="J21">
-        <v>1.049288740957892</v>
+        <v>1.543834361144576</v>
       </c>
       <c r="K21">
-        <v>1.389710136971426</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="L21">
-        <v>3.56820436074596</v>
+        <v>5.249952929711842</v>
       </c>
       <c r="M21">
-        <v>2.24530219361002</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="N21">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O21">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P21">
-        <v>21.72320383773423</v>
+        <v>31.96167766769899</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.810843947633996</v>
+        <v>2.664322030631838</v>
       </c>
       <c r="C22">
-        <v>8.144354796809322</v>
+        <v>11.98291213264002</v>
       </c>
       <c r="D22">
-        <v>0.008921529830715196</v>
+        <v>0.0131263814896754</v>
       </c>
       <c r="E22">
-        <v>0.8485963909686067</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="F22">
-        <v>3.788174684522743</v>
+        <v>5.573598587025078</v>
       </c>
       <c r="G22">
-        <v>4.37672334499057</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="H22">
-        <v>0.9315011202802554</v>
+        <v>1.370531657111373</v>
       </c>
       <c r="I22">
-        <v>6.903928001250111</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="J22">
-        <v>1.748814568263153</v>
+        <v>2.573057268574295</v>
       </c>
       <c r="K22">
-        <v>2.316183561619045</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="L22">
-        <v>5.536868835640286</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M22">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N22">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O22">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P22">
-        <v>40.13392648149135</v>
+        <v>59.04965176049962</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.507191101860831</v>
+        <v>3.688868108386588</v>
       </c>
       <c r="C23">
-        <v>11.276208479277</v>
+        <v>16.59085572370235</v>
       </c>
       <c r="D23">
-        <v>0.004460764915357598</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E23">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F23">
-        <v>2.525449789681829</v>
+        <v>3.715732391350052</v>
       </c>
       <c r="G23">
-        <v>2.917815563327046</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="H23">
-        <v>0.7794193047242957</v>
+        <v>1.146771386562578</v>
       </c>
       <c r="I23">
-        <v>5.776756082678662</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="J23">
-        <v>2.069430572444731</v>
+        <v>3.044784434479582</v>
       </c>
       <c r="K23">
-        <v>2.740817214582536</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="L23">
-        <v>5.044702716916703</v>
+        <v>7.422347245454676</v>
       </c>
       <c r="M23">
-        <v>3.174392756483132</v>
+        <v>4.670531972689656</v>
       </c>
       <c r="N23">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O23">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P23">
-        <v>39.71079472019319</v>
+        <v>58.42709161391178</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.933874407146879</v>
+        <v>4.316653695246115</v>
       </c>
       <c r="C24">
-        <v>13.19523647098514</v>
+        <v>19.41435057116702</v>
       </c>
       <c r="D24">
-        <v>0.005352917898429118</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E24">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F24">
-        <v>3.126747358653693</v>
+        <v>4.60043057976673</v>
       </c>
       <c r="G24">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H24">
-        <v>0.3421840850009102</v>
+        <v>0.5034606087347904</v>
       </c>
       <c r="I24">
-        <v>2.536136816785755</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="J24">
-        <v>2.200591665064468</v>
+        <v>3.237763729622654</v>
       </c>
       <c r="K24">
-        <v>2.914530981703964</v>
+        <v>4.288193421447933</v>
       </c>
       <c r="L24">
-        <v>7.013367191811027</v>
+        <v>10.31887299977845</v>
       </c>
       <c r="M24">
-        <v>4.413180173647281</v>
+        <v>6.493178596178304</v>
       </c>
       <c r="N24">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O24">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P24">
-        <v>43.17877520012751</v>
+        <v>63.52958363513906</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.36894571094815</v>
+        <v>3.485465578244102</v>
       </c>
       <c r="C25">
-        <v>10.65444340996356</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="D25">
-        <v>0.01092887404262612</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E25">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F25">
-        <v>4.088823469008673</v>
+        <v>6.015947681233415</v>
       </c>
       <c r="G25">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H25">
-        <v>0.2566380637506827</v>
+        <v>0.3775954565510927</v>
       </c>
       <c r="I25">
-        <v>1.902102612589316</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="J25">
-        <v>2.812676763956572</v>
+        <v>4.138333773623658</v>
       </c>
       <c r="K25">
-        <v>3.725195228270629</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="L25">
-        <v>8.243782488619981</v>
+        <v>12.12920159623081</v>
       </c>
       <c r="M25">
-        <v>5.187422309374874</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="N25">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O25">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P25">
-        <v>45.20251272121305</v>
+        <v>66.50713919352354</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.425267907245909</v>
+        <v>3.568333275709559</v>
       </c>
       <c r="C26">
-        <v>10.90775510486904</v>
+        <v>16.04874471298914</v>
       </c>
       <c r="D26">
-        <v>0.01204406527146552</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E26">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F26">
-        <v>3.908434198317116</v>
+        <v>5.750538224708415</v>
       </c>
       <c r="G26">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H26">
-        <v>0.1520818155559601</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I26">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J26">
-        <v>3.672510593352621</v>
+        <v>5.40342026400602</v>
       </c>
       <c r="K26">
-        <v>4.863985479399993</v>
+        <v>7.156455246389928</v>
       </c>
       <c r="L26">
-        <v>8.48986554798177</v>
+        <v>12.49126731552128</v>
       </c>
       <c r="M26">
-        <v>5.342270736520394</v>
+        <v>7.860163563794787</v>
       </c>
       <c r="N26">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O26">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P26">
-        <v>47.03251161595433</v>
+        <v>69.19964418693368</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.382599576717305</v>
+        <v>3.505554717023604</v>
       </c>
       <c r="C27">
-        <v>10.71585230569822</v>
+        <v>15.76639522824266</v>
       </c>
       <c r="D27">
-        <v>0.01449748597491219</v>
+        <v>0.02133036992072253</v>
       </c>
       <c r="E27">
-        <v>1.378969135323986</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="F27">
-        <v>3.487525900036811</v>
+        <v>5.131249492816738</v>
       </c>
       <c r="G27">
-        <v>4.029364349356396</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="H27">
-        <v>0.1235664751392176</v>
+        <v>0.1818052198208965</v>
       </c>
       <c r="I27">
-        <v>0.9158271838393002</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="J27">
-        <v>3.045852039724991</v>
+        <v>4.48140807610023</v>
       </c>
       <c r="K27">
-        <v>4.034019703153168</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="L27">
-        <v>7.874657899577295</v>
+        <v>11.5861030172951</v>
       </c>
       <c r="M27">
-        <v>4.955149668656596</v>
+        <v>7.290586493954586</v>
       </c>
       <c r="N27">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O27">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P27">
-        <v>43.38074868323329</v>
+        <v>63.82675026915259</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.432094840130486</v>
+        <v>3.57837784509931</v>
       </c>
       <c r="C28">
-        <v>10.93845955273637</v>
+        <v>16.09392063054857</v>
       </c>
       <c r="D28">
-        <v>0.011151912288394</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E28">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F28">
-        <v>3.066617601756506</v>
+        <v>4.511960760925062</v>
       </c>
       <c r="G28">
-        <v>3.543061755468556</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="H28">
-        <v>0.1805971559727026</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I28">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J28">
-        <v>2.57950148818815</v>
+        <v>3.795259471147085</v>
       </c>
       <c r="K28">
-        <v>3.41637075338809</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="L28">
-        <v>5.782951895002076</v>
+        <v>8.508544403326086</v>
       </c>
       <c r="M28">
-        <v>3.638938037919688</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="N28">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O28">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P28">
-        <v>38.59981496602715</v>
+        <v>56.7924903339517</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.573753697485453</v>
+        <v>3.786802659936673</v>
       </c>
       <c r="C29">
-        <v>11.57557684598347</v>
+        <v>17.03132091990683</v>
       </c>
       <c r="D29">
-        <v>0.0100367210595546</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E29">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F29">
-        <v>4.449602010391792</v>
+        <v>6.546766594283422</v>
       </c>
       <c r="G29">
-        <v>5.140913135385746</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="H29">
-        <v>0.2376278368061876</v>
+        <v>0.3496254227324932</v>
       </c>
       <c r="I29">
-        <v>1.761206122767884</v>
+        <v>2.591289149738803</v>
       </c>
       <c r="J29">
-        <v>2.943837856576307</v>
+        <v>4.331313068766729</v>
       </c>
       <c r="K29">
-        <v>3.898908995392059</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="L29">
-        <v>5.65991036532118</v>
+        <v>8.327511543680847</v>
       </c>
       <c r="M29">
-        <v>3.561513824346929</v>
+        <v>5.240109042529858</v>
       </c>
       <c r="N29">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O29">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P29">
-        <v>43.37836618251802</v>
+        <v>63.82324485989192</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.259714784794921</v>
+        <v>3.324752468008059</v>
       </c>
       <c r="C30">
-        <v>10.16317224408628</v>
+        <v>14.95322871217285</v>
       </c>
       <c r="D30">
-        <v>0.009590644568018839</v>
+        <v>0.01411086010140106</v>
       </c>
       <c r="E30">
-        <v>0.9122411202912521</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="F30">
-        <v>4.509731767288978</v>
+        <v>6.635236413125091</v>
       </c>
       <c r="G30">
-        <v>5.21038493451258</v>
+        <v>7.666117992791239</v>
       </c>
       <c r="H30">
-        <v>0.1520818155559601</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I30">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J30">
-        <v>2.681515671336833</v>
+        <v>3.945354478480585</v>
       </c>
       <c r="K30">
-        <v>3.551481461149201</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="L30">
-        <v>3.32212130138417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M30">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N30">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O30">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P30">
-        <v>36.36554317225755</v>
+        <v>53.50517252264196</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.65738362532152</v>
+        <v>3.90984863496114</v>
       </c>
       <c r="C31">
-        <v>11.95170633235827</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="D31">
-        <v>0.007360262110340037</v>
+        <v>0.01082926472898221</v>
       </c>
       <c r="E31">
-        <v>0.7000920225491005</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="F31">
-        <v>3.247006872448066</v>
+        <v>4.777370217450065</v>
       </c>
       <c r="G31">
-        <v>3.751477152849059</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="H31">
-        <v>0.1425767020837126</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I31">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J31">
-        <v>2.623221852394729</v>
+        <v>3.859585902861441</v>
       </c>
       <c r="K31">
-        <v>3.474275342428566</v>
+        <v>5.111753747421377</v>
       </c>
       <c r="L31">
-        <v>5.167744246597596</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M31">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N31">
-        <v>0.1366893340678607</v>
+        <v>0.201113080221645</v>
       </c>
       <c r="O31">
-        <v>0.5680889326572781</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="P31">
-        <v>38.73616332158272</v>
+        <v>56.99310172734191</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.036278400415531</v>
+        <v>4.467322236092401</v>
       </c>
       <c r="C32">
-        <v>13.65580318899508</v>
+        <v>20.09198933455852</v>
       </c>
       <c r="D32">
-        <v>0.009813682813786716</v>
+        <v>0.01443901963864294</v>
       </c>
       <c r="E32">
-        <v>0.9334560300654674</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="F32">
-        <v>3.908434198317116</v>
+        <v>5.750538224708415</v>
       </c>
       <c r="G32">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H32">
-        <v>0.3136687445841678</v>
+        <v>0.4615055580068911</v>
       </c>
       <c r="I32">
-        <v>2.324792082053608</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="J32">
-        <v>2.535781123981571</v>
+        <v>3.730933039432727</v>
       </c>
       <c r="K32">
-        <v>3.358466164347614</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="L32">
-        <v>4.183412009150436</v>
+        <v>6.15511722793802</v>
       </c>
       <c r="M32">
-        <v>2.632423261473816</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="N32">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O32">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P32">
-        <v>41.83086278947751</v>
+        <v>61.54637976174671</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.329836514452334</v>
+        <v>4.899238719851756</v>
       </c>
       <c r="C33">
-        <v>14.97609444729029</v>
+        <v>22.0345537896142</v>
       </c>
       <c r="D33">
-        <v>0.007360262110340037</v>
+        <v>0.01082926472898221</v>
       </c>
       <c r="E33">
-        <v>0.7000920225491005</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="F33">
-        <v>2.946358087962133</v>
+        <v>4.335021123241727</v>
       </c>
       <c r="G33">
-        <v>3.404118157214886</v>
+        <v>5.008530421956942</v>
       </c>
       <c r="H33">
-        <v>0.5322863544458604</v>
+        <v>0.783160946920785</v>
       </c>
       <c r="I33">
-        <v>3.945101715000062</v>
+        <v>5.804487695414919</v>
       </c>
       <c r="J33">
-        <v>2.069430572444731</v>
+        <v>3.044784434479582</v>
       </c>
       <c r="K33">
-        <v>2.740817214582536</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="L33">
-        <v>2.091706004575218</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M33">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N33">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O33">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P33">
-        <v>38.38830950783613</v>
+        <v>56.48129916113222</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,49 +2056,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.474908838249589</v>
+        <v>5.112685819383993</v>
       </c>
       <c r="C34">
-        <v>15.62856396447105</v>
+        <v>22.99454203775219</v>
       </c>
       <c r="D34">
-        <v>0.005129879652661238</v>
+        <v>0.007547669356563357</v>
       </c>
       <c r="E34">
-        <v>0.4879429248069488</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="F34">
-        <v>3.367266386242438</v>
+        <v>4.954309855133402</v>
       </c>
       <c r="G34">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H34">
-        <v>0.6843681700018205</v>
+        <v>1.006921217469581</v>
       </c>
       <c r="I34">
-        <v>5.072273633571509</v>
+        <v>7.462912751247754</v>
       </c>
       <c r="J34">
-        <v>1.399051654610522</v>
+        <v>2.058445814859436</v>
       </c>
       <c r="K34">
-        <v>1.852946849295235</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="L34">
-        <v>1.107373767128056</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M34">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N34">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O34">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P34">
-        <v>37.90199083019578</v>
+        <v>55.76577115087056</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2106,49 +2106,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.437215039793916</v>
+        <v>3.585911272141626</v>
       </c>
       <c r="C35">
-        <v>10.96148788863687</v>
+        <v>16.12780256871814</v>
       </c>
       <c r="D35">
-        <v>0.004683803161125477</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E35">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F35">
-        <v>2.765968817270575</v>
+        <v>4.069611666716723</v>
       </c>
       <c r="G35">
-        <v>3.195702759834383</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="H35">
-        <v>0.5132761275013653</v>
+        <v>0.7551909131021853</v>
       </c>
       <c r="I35">
-        <v>3.804205225178632</v>
+        <v>5.597184563435817</v>
       </c>
       <c r="J35">
-        <v>0.8161134651894714</v>
+        <v>1.200760058668004</v>
       </c>
       <c r="K35">
-        <v>1.080885662088887</v>
+        <v>1.590323388086651</v>
       </c>
       <c r="L35">
-        <v>1.845622945213428</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M35">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="N35">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O35">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P35">
-        <v>29.26696413162694</v>
+        <v>43.06092604362058</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2156,49 +2156,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.15731079152627</v>
+        <v>3.174083927161774</v>
       </c>
       <c r="C36">
-        <v>9.702605526076333</v>
+        <v>14.27558994878133</v>
       </c>
       <c r="D36">
-        <v>0.003122535440750319</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E36">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F36">
-        <v>1.864022463812779</v>
+        <v>2.742564384091704</v>
       </c>
       <c r="G36">
-        <v>2.153625772931867</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="H36">
-        <v>0.5512965813903553</v>
+        <v>0.8111309807393841</v>
       </c>
       <c r="I36">
-        <v>4.085998204821492</v>
+        <v>6.011790827394027</v>
       </c>
       <c r="J36">
-        <v>0.641232008363156</v>
+        <v>0.9434543318105749</v>
       </c>
       <c r="K36">
-        <v>0.8492673059269829</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="L36">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M36">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N36">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O36">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P36">
-        <v>25.44090685715189</v>
+        <v>37.43159023024908</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2206,49 +2206,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.725507286576787</v>
+        <v>2.538764913259931</v>
       </c>
       <c r="C37">
-        <v>7.760549198467694</v>
+        <v>11.41821316314709</v>
       </c>
       <c r="D37">
-        <v>0.003122535440750319</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E37">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F37">
-        <v>2.044411734504337</v>
+        <v>3.007973840616708</v>
       </c>
       <c r="G37">
-        <v>2.36204117031237</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="H37">
-        <v>0.3041636311119202</v>
+        <v>0.4475205410975914</v>
       </c>
       <c r="I37">
-        <v>2.254343837142892</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="J37">
-        <v>0.5683647346855247</v>
+        <v>0.8362436122866457</v>
       </c>
       <c r="K37">
-        <v>0.7527596575261893</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="L37">
-        <v>1.107373767128056</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M37">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N37">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O37">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P37">
-        <v>20.06440508301708</v>
+        <v>29.52106202417428</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2256,49 +2256,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.327838446050188</v>
+        <v>1.953668746306851</v>
       </c>
       <c r="C38">
-        <v>5.972015110195716</v>
+        <v>8.786715965310025</v>
       </c>
       <c r="D38">
-        <v>0.005352917898429118</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E38">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F38">
-        <v>1.202595137943728</v>
+        <v>1.769396376833358</v>
       </c>
       <c r="G38">
-        <v>1.389435982536688</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="H38">
-        <v>0.1520818155559601</v>
+        <v>0.2237602705487957</v>
       </c>
       <c r="I38">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="J38">
-        <v>0.4226301873302621</v>
+        <v>0.621822173238788</v>
       </c>
       <c r="K38">
-        <v>0.5597443607246023</v>
+        <v>0.8235603259734442</v>
       </c>
       <c r="L38">
-        <v>1.107373767128056</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M38">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N38">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O38">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P38">
-        <v>14.56618583623442</v>
+        <v>21.43144906355056</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,49 +2306,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.8294723454760814</v>
+        <v>1.220415180854923</v>
       </c>
       <c r="C39">
-        <v>3.730590415880614</v>
+        <v>5.488873983471302</v>
       </c>
       <c r="D39">
-        <v>0.004237726669589718</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E39">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F39">
-        <v>0.8418165965606095</v>
+        <v>1.23857746378335</v>
       </c>
       <c r="G39">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H39">
-        <v>0.06653579430573255</v>
+        <v>0.09789511836509812</v>
       </c>
       <c r="I39">
-        <v>0.4931377143750078</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="J39">
-        <v>0.2186018210328941</v>
+        <v>0.3216321585717869</v>
       </c>
       <c r="K39">
-        <v>0.2895229452023806</v>
+        <v>0.4259794789517813</v>
       </c>
       <c r="L39">
-        <v>0.7382491780853713</v>
+        <v>1.086197157871415</v>
       </c>
       <c r="M39">
-        <v>0.4645452814365559</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="N39">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O39">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P39">
-        <v>9.099383510292281</v>
+        <v>13.38806029272483</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2356,49 +2356,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.6297845586022097</v>
+        <v>0.9266115262046634</v>
       </c>
       <c r="C40">
-        <v>2.832485315761207</v>
+        <v>4.167478394857841</v>
       </c>
       <c r="D40">
-        <v>0.009144568076483076</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E40">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F40">
-        <v>0.6614273258690504</v>
+        <v>0.9731680072583468</v>
       </c>
       <c r="G40">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H40">
-        <v>0.03802045388899002</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I40">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J40">
-        <v>0.2040283662973678</v>
+        <v>0.300190014667001</v>
       </c>
       <c r="K40">
-        <v>0.2702214155222218</v>
+        <v>0.3975808470216627</v>
       </c>
       <c r="L40">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M40">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="N40">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O40">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P40">
-        <v>8.859999686151944</v>
+        <v>13.03585125932506</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2406,49 +2406,49 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.4505775703820688</v>
+        <v>0.6629415797236616</v>
       </c>
       <c r="C41">
-        <v>2.026493559243791</v>
+        <v>2.981610558922682</v>
       </c>
       <c r="D41">
-        <v>0.006914185618804277</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E41">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F41">
-        <v>0.4209082982803047</v>
+        <v>0.6192887318916752</v>
       </c>
       <c r="G41">
-        <v>0.486302593887841</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="H41">
-        <v>0.009505113472247506</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I41">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J41">
-        <v>0.3643363683881569</v>
+        <v>0.5360535976196448</v>
       </c>
       <c r="K41">
-        <v>0.4825382420039675</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="L41">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M41">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="N41">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O41">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P41">
-        <v>7.227794772760444</v>
+        <v>10.63436353591497</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2456,43 +2456,43 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.332812978123119</v>
+        <v>0.4896727577504319</v>
       </c>
       <c r="C42">
-        <v>1.496841833532346</v>
+        <v>2.202325981022435</v>
       </c>
       <c r="D42">
-        <v>0.004014688423821838</v>
+        <v>0.005906871670353931</v>
       </c>
       <c r="E42">
-        <v>0.381868375935873</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="F42">
-        <v>0.6614273258690504</v>
+        <v>0.9731680072583468</v>
       </c>
       <c r="G42">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H42">
-        <v>0.01901022694449501</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I42">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J42">
-        <v>0.1894549115618416</v>
+        <v>0.2787478707622152</v>
       </c>
       <c r="K42">
-        <v>0.2509198858420632</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="L42">
-        <v>1.230415296808952</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M42">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="P42">
-        <v>6.246093938985765</v>
+        <v>9.189972282691322</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2500,49 +2500,49 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2611301828350625</v>
+        <v>0.3842047791580309</v>
       </c>
       <c r="C43">
-        <v>1.174445130925378</v>
+        <v>1.727978846648373</v>
       </c>
       <c r="D43">
-        <v>0.003568611932286078</v>
+        <v>0.005250552595870163</v>
       </c>
       <c r="E43">
-        <v>0.3394385563874427</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="F43">
-        <v>0.6614273258690504</v>
+        <v>0.9731680072583468</v>
       </c>
       <c r="G43">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H43">
-        <v>0.01901022694449501</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I43">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J43">
-        <v>0.2331752757684204</v>
+        <v>0.3430743024765726</v>
       </c>
       <c r="K43">
-        <v>0.3088244748825393</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="L43">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M43">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N43">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O43">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P43">
-        <v>6.759611689094124</v>
+        <v>9.94551869878191</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4300967717283384</v>
+        <v>0.6328078715544045</v>
       </c>
       <c r="C44">
-        <v>1.934380215641799</v>
+        <v>2.84608280624438</v>
       </c>
       <c r="D44">
-        <v>0.002899497194982439</v>
+        <v>0.004266073984144505</v>
       </c>
       <c r="E44">
-        <v>0.2757938270647972</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="F44">
-        <v>0.7215570827662366</v>
+        <v>1.061637826100015</v>
       </c>
       <c r="G44">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H44">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I44">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J44">
-        <v>0.641232008363156</v>
+        <v>0.9434543318105749</v>
       </c>
       <c r="K44">
-        <v>0.8492673059269829</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="L44">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M44">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="P44">
-        <v>8.735268778908356</v>
+        <v>12.85233279297461</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.022333199465376</v>
+        <v>1.504174266115429</v>
       </c>
       <c r="C45">
-        <v>4.59799106813269</v>
+        <v>6.765093654525325</v>
       </c>
       <c r="D45">
-        <v>0.002453420703446679</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E45">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F45">
-        <v>1.142465381046542</v>
+        <v>1.68092655799169</v>
       </c>
       <c r="G45">
-        <v>1.319964183409854</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="H45">
-        <v>0.3041636311119202</v>
+        <v>0.4475205410975914</v>
       </c>
       <c r="I45">
-        <v>2.254343837142892</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="J45">
-        <v>1.399051654610522</v>
+        <v>2.058445814859436</v>
       </c>
       <c r="K45">
-        <v>1.852946849295235</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="L45">
-        <v>3.691245890426856</v>
+        <v>5.430985789357079</v>
       </c>
       <c r="M45">
-        <v>2.32272640718278</v>
+        <v>3.417462419041212</v>
       </c>
       <c r="N45">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O45">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P45">
-        <v>20.23701996560784</v>
+        <v>29.77503290615027</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.8688728771529</v>
+        <v>2.749700870444733</v>
       </c>
       <c r="C46">
-        <v>8.405342603681632</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="D46">
-        <v>0.002453420703446679</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E46">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F46">
-        <v>2.465320032784642</v>
+        <v>3.627262572508384</v>
       </c>
       <c r="G46">
-        <v>2.848343764200211</v>
+        <v>4.190811169392544</v>
       </c>
       <c r="H46">
-        <v>0.9315011202802554</v>
+        <v>1.370531657111373</v>
       </c>
       <c r="I46">
-        <v>6.903928001250111</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="J46">
-        <v>1.777961477734206</v>
+        <v>2.615941556383866</v>
       </c>
       <c r="K46">
-        <v>2.354786620979362</v>
+        <v>3.464633095474489</v>
       </c>
       <c r="L46">
-        <v>7.259450251172818</v>
+        <v>10.68093871906891</v>
       </c>
       <c r="M46">
-        <v>4.5680286007928</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="N46">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O46">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P46">
-        <v>39.80729364937546</v>
+        <v>58.56907194484454</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.551566165610578</v>
+        <v>3.754157809419978</v>
       </c>
       <c r="C47">
-        <v>11.47578739041465</v>
+        <v>16.88449918783868</v>
       </c>
       <c r="D47">
-        <v>0.003791650178053958</v>
+        <v>0.005578712133112046</v>
       </c>
       <c r="E47">
-        <v>0.3606534661616579</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="F47">
-        <v>3.126747358653693</v>
+        <v>4.60043057976673</v>
       </c>
       <c r="G47">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H47">
-        <v>0.7413988508353054</v>
+        <v>1.090831318925378</v>
       </c>
       <c r="I47">
-        <v>5.4949631030358</v>
+        <v>8.084822147185069</v>
       </c>
       <c r="J47">
-        <v>1.850828751411837</v>
+        <v>2.723152275907795</v>
       </c>
       <c r="K47">
-        <v>2.451294269380155</v>
+        <v>3.606626255125083</v>
       </c>
       <c r="L47">
-        <v>5.90599342468297</v>
+        <v>8.689577262971321</v>
       </c>
       <c r="M47">
-        <v>3.716362251492447</v>
+        <v>5.467939870465939</v>
       </c>
       <c r="N47">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O47">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P47">
-        <v>41.62081676092428</v>
+        <v>61.23733586978002</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.81610981488793</v>
+        <v>4.143384873272885</v>
       </c>
       <c r="C48">
-        <v>12.66558474527368</v>
+        <v>18.63506599326676</v>
       </c>
       <c r="D48">
-        <v>0.005575956144196998</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E48">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F48">
-        <v>3.607785413831183</v>
+        <v>5.308189130500073</v>
       </c>
       <c r="G48">
-        <v>4.168307947610066</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="H48">
-        <v>0.3802045388899004</v>
+        <v>0.5594006763719893</v>
       </c>
       <c r="I48">
-        <v>2.817929796428616</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="J48">
-        <v>2.288032393477626</v>
+        <v>3.36641659305137</v>
       </c>
       <c r="K48">
-        <v>3.030340159784916</v>
+        <v>4.458585213028645</v>
       </c>
       <c r="L48">
-        <v>6.152076484044759</v>
+        <v>9.051642982261798</v>
       </c>
       <c r="M48">
-        <v>3.871210678637965</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="N48">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O48">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P48">
-        <v>42.75639763340129</v>
+        <v>62.90813314640776</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.36894571094815</v>
+        <v>3.485465578244102</v>
       </c>
       <c r="C49">
-        <v>10.65444340996356</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="D49">
-        <v>0.01092887404262612</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E49">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F49">
-        <v>4.088823469008673</v>
+        <v>6.015947681233415</v>
       </c>
       <c r="G49">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H49">
-        <v>0.2566380637506827</v>
+        <v>0.3775954565510927</v>
       </c>
       <c r="I49">
-        <v>1.902102612589316</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="J49">
-        <v>2.812676763956572</v>
+        <v>4.138333773623658</v>
       </c>
       <c r="K49">
-        <v>3.725195228270629</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="L49">
-        <v>8.243782488619981</v>
+        <v>12.12920159623081</v>
       </c>
       <c r="M49">
-        <v>5.187422309374874</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="N49">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O49">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P49">
-        <v>45.20251272121305</v>
+        <v>66.50713919352354</v>
       </c>
     </row>
   </sheetData>
